--- a/RNA/Practice 1/Resultados.xlsx
+++ b/RNA/Practice 1/Resultados.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Gits\crispy-invention\RNA\Practice 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC4B007-8BFF-426F-8635-607D6C21924B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5562AF0-E2A6-4D0D-B60A-0573ACE72CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{381A8777-1A80-447C-9A6C-76478D5DFAEB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21375" activeTab="6" xr2:uid="{381A8777-1A80-447C-9A6C-76478D5DFAEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos pruebas " sheetId="7" r:id="rId1"/>
     <sheet name="Comparación Datos 1" sheetId="8" r:id="rId2"/>
     <sheet name="Comparación Datos 2" sheetId="10" r:id="rId3"/>
     <sheet name="Comparación Datos 3" sheetId="11" r:id="rId4"/>
-    <sheet name="Comparación Valores " sheetId="9" r:id="rId5"/>
+    <sheet name="Comparación Valores ADALINE" sheetId="9" r:id="rId5"/>
+    <sheet name="Datos prueba RSNNS" sheetId="12" r:id="rId6"/>
+    <sheet name="Comparación Valores RSNNS" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>CICLOS</t>
   </si>
@@ -63,13 +65,48 @@
   <si>
     <t>Error Val.</t>
   </si>
+  <si>
+    <t>CAPAS</t>
+  </si>
+  <si>
+    <t>NEURONAS</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>40, 40</t>
+  </si>
+  <si>
+    <t>20, 60</t>
+  </si>
+  <si>
+    <t>80, 80</t>
+  </si>
+  <si>
+    <t>Pred Norm</t>
+  </si>
+  <si>
+    <t>Pred</t>
+  </si>
+  <si>
+    <t>Real Norm</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Diferencia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -225,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -246,11 +283,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000000000000"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -14206,7 +14302,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Comparación Valores '!$A$1:$A$154</c:f>
+              <c:f>'Comparación Valores ADALINE'!$A$1:$A$154</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="154"/>
@@ -14699,7 +14795,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Comparación Valores '!$C$1:$C$154</c:f>
+              <c:f>'Comparación Valores ADALINE'!$C$1:$C$154</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="154"/>
@@ -15172,6 +15268,1267 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C47F-4C96-98D0-2FADB6DAEDCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="613393176"/>
+        <c:axId val="613396128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="613393176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613396128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="613396128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613393176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Comparación</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> de valores</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparación Valores RSNNS'!$B$1:$B$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="154"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.85272621957283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.976565273594538</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.202149422282844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.904150391197327</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.861716478745578</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.325335937887409</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.441413529908885</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.225919433982838</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.664644173225632</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.238356851313936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.26400682046129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.820741260149759</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.265706047751957</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.323573765177365</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.205437252081552</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.399676814771816</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.123739561987051</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.989628531461094</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.271144698271264</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50.169900980113972</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38.905835697089678</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.968688938301888</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.496595333216675</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41.783959154335996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.576390703708761</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.704115939196711</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.057214986420732</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37.029423656461326</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.587352746969898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.833657645696</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>75.592450890234687</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>48.967115257070816</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32.182392494446916</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50.474714442763648</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29.217215701676423</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>63.085262062138895</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40.923812871994386</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50.221783715504131</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.711291326073203</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>56.687289248561171</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34.731045750124949</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23.410071651525342</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29.242929807297436</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20.646444023303282</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19.789755712835792</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>62.792404976816805</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13.591237664376626</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.605094444678441</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26.13853944465901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>35.310614275840329</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28.631300583514019</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>33.747079913142016</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>46.43603773253033</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43.625777122828751</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>72.781903212650064</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>37.921109130216777</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>37.166118205655813</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>48.236604046233907</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21.322066658791556</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67.463750594426187</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33.037483989815122</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>48.788736059030199</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31.270461558241855</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>48.505184757582413</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>38.449991036721244</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>46.43812375914689</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>34.79869090452501</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>39.068945275986238</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>54.054656675939562</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>46.47557654895089</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40.868614502555353</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>50.264260193260881</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>64.297277017621013</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42.600030947705399</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>34.795655161662125</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>27.239717490509122</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>35.145004814129194</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>32.33140704028748</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19.787133826170916</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26.967849851900077</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>39.166122538851432</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>33.025960606544402</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>32.550121668124028</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>32.697619538649313</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>39.585145958758545</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22.649669497369551</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>25.073498460815692</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>56.726995521246828</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>37.162151884405482</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>41.448857637795875</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>24.298802718318086</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43.191204192591677</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>47.358219384391425</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>30.652270441099155</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>18.560194929120556</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>75.592450890234687</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>48.336886426700353</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>35.708715231540381</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>15.297646908567534</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>28.06413578257721</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>35.056520923654638</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>34.88876802175028</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>25.11846525245754</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>46.51142175860997</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>29.859549227780612</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>35.073060818180963</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>40.867284421364097</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>23.368848703524414</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44.327366244451873</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>14.842090512198236</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>57.660793853440531</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>54.590421034939268</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>27.068945591368411</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>28.892668714301848</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>57.272635015422203</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>34.444413253399496</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>53.387003762553427</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>62.536971974510308</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>39.99295937783392</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>36.497094543128298</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>46.46909359925953</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>35.455121855917604</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>18.560194929120556</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>15.114656682656019</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>19.719701580450796</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>38.313822778645594</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>30.672822109290671</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>42.909270040218196</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.466732960799167</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41.290915280793548</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>72.288251712088609</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>38.315423182093369</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>60.542711391207362</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7.4839432105005255</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>12.294838506624201</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>48.150593724018009</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>16.435255064888384</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>36.413569750332854</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>16.501091691625462</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>29.353326546175495</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>26.193785658745149</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>39.889466621542368</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>37.379450310685776</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>19.481591928768097</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>67.131445597513093</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>25.763640750603606</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>38.951924445707654</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>13.460536853356215</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>25.542450162276083</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>23.511870707307061</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>71.626397569939385</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>56.445003955296762</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>55.894867064287396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7F0-428E-AA31-81B830135DB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparación Valores RSNNS'!$D$1:$D$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="154"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.729999999999933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.630000999999957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.569999999999986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.919999999999959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.029998999999926</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.519999999999939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.700000999999979</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.099997999999943</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.540000999999926</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.179999999999982</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.199996999999968</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.3199999999999967</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.619999999999987</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.659999999999975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.280000999999949</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.529998999999926</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.789999999999944</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.919999999999938</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51.040000999999982</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37.360000999999968</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.919999999999959</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34.740001999999976</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.64999999999992</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37.429999999999929</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.389998999999939</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36.939999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23.34999999999993</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>79.300002999999947</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47.029998999999968</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32.330001999999936</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.330001999999951</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34.569999999999936</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>66.599997999999943</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43.580001999999965</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>52.959998999999989</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.549999999999931</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>49.970001000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38.560000999999978</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.569999999999965</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27.829999999999941</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20.769999999999968</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.339999999999939</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>78.800002999999947</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.339999999999939</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13.199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>23.519999999999939</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>36.349997999999978</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27.870000999999924</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>31.71999899999993</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45.299998999999929</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>40.150001999999994</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>77.300002999999961</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43.389998999999953</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43.249999999999929</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>51.040000999999982</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21.15999999999994</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>76.239997999999972</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>32.999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>38.799998999999922</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>29.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>46.229999999999954</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>40.29000099999994</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>47.819999999999936</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27.229999999999933</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>39.380000999999957</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>51.019999999999939</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43.380000999999993</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40.560000999999957</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>35.959998999999947</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>72.099997999999957</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43.889998999999946</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>37.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>31.879998999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>32.110000999999947</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>23.25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>23.399999999999977</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>25.179999999999993</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>37.269999999999932</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>39.299998999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>33.799998999999978</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>33.400001999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>39.779998999999975</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>24.069999999999979</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>26.940000999999924</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>58.610000999999961</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42.419997999999971</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42.700000999999986</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27.679999999999964</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46.799998999999985</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>49.200000999999993</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>24.339999999999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19.690000999999924</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>79.300002999999947</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>46.200000999999951</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>34.669997999999985</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>18.290000999999958</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>31.030000999999963</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>34.200000999999929</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>36.450000999999979</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>25.969999000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>48.150001999999979</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43.060000999999929</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>29.649999999999991</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>38.459998999999996</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>21.950000999999993</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>39.060000999999971</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>12.179999999999982</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>69.839995999999928</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>60.950000999999936</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>31.870000999999959</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>25.179999999999993</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>54.319999999999951</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>34.490001999999983</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>52.439998999999986</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>60.290000999999954</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>39.299998999999993</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>42.63999899999996</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>43.79999899999995</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>30.450000999999972</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>19.690000999999924</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>13.519999999999973</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>26.259999999999977</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>33.54000099999994</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>29.719998999999952</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>56.830001999999972</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9.7399999999999949</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>36.970000999999989</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>50.509997999999968</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>40.679999999999971</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>47.970000999999947</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7.6799999999999944</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>10.029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>56.740001999999961</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9.009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>35.080001999999986</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>18.909999999999961</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>28.989999999999924</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>25.179999999999993</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>37.16999799999995</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>25.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>61.860000999999997</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>28.629998999999962</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>37.909999999999982</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>12.459999999999928</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>24.239999999999981</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>20.919999999999952</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>68.499999999999943</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>52.909999999999968</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>56.810000999999929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D7F0-428E-AA31-81B830135DB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15531,6 +16888,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -18150,6 +19547,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -18352,15 +20265,74 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4760CC7-CBFF-4D20-AF9F-0794E43AD438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{48967E76-2593-46E7-8686-BDE6ECCEA8AF}" name="Tabla13" displayName="Tabla13" ref="A1:E8" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{48967E76-2593-46E7-8686-BDE6ECCEA8AF}" name="Tabla13" displayName="Tabla13" ref="A1:E8" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:E8" xr:uid="{6B66251C-34FA-4DCF-964B-0182CE133441}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DC517106-6115-4933-AE78-16DA2A84443F}" name="F. APRENDIZAJE" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{4A4C55AF-7F4F-409A-B5B0-73928A77891F}" name="CICLOS" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{CC51D367-EAD0-41A3-9BF5-4D2F38919A2B}" name="E. ENTREN." dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{82466D97-14E9-40B0-84FA-1AEE11AC9D6A}" name="E. VAL." dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{743F5CF6-7A42-40A5-BB25-E985BB1CD2F4}" name="E. TEST" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DC517106-6115-4933-AE78-16DA2A84443F}" name="F. APRENDIZAJE" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{4A4C55AF-7F4F-409A-B5B0-73928A77891F}" name="CICLOS" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{CC51D367-EAD0-41A3-9BF5-4D2F38919A2B}" name="E. ENTREN." dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{82466D97-14E9-40B0-84FA-1AEE11AC9D6A}" name="E. VAL." dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{743F5CF6-7A42-40A5-BB25-E985BB1CD2F4}" name="E. TEST" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{62643F95-C31C-4A81-BC76-ABDF70F0C185}" name="Tabla132" displayName="Tabla132" ref="A1:G11" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:G11" xr:uid="{62643F95-C31C-4A81-BC76-ABDF70F0C185}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{AB4CEA21-1ADA-4608-9CE6-507D505FED12}" name="F. APRENDIZAJE"/>
+    <tableColumn id="2" xr3:uid="{7A18C56E-4A52-4646-AB97-73144BC82BF1}" name="CICLOS"/>
+    <tableColumn id="8" xr3:uid="{B91D77E9-91D5-4EC0-A5D6-F793986BC17D}" name="CAPAS"/>
+    <tableColumn id="7" xr3:uid="{0CA9B597-AAA2-421E-A8F3-43E23BD9632F}" name="NEURONAS" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{AF9C2247-F332-44BE-BE76-034A9F051311}" name="E. ENTREN."/>
+    <tableColumn id="4" xr3:uid="{BFB341A2-6982-421E-B47A-48F9E5B614CD}" name="E. VAL."/>
+    <tableColumn id="5" xr3:uid="{B875550A-7584-4FC4-BE04-7B2B8CC49521}" name="E. TEST"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -18663,10 +20635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06C3CD9-90C3-48A6-A681-B881CCBCF12B}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18676,7 +20648,7 @@
     <col min="5" max="5" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -18692,8 +20664,11 @@
       <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -18709,8 +20684,12 @@
       <c r="E2" s="11">
         <v>1.7685480517321901E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>AVERAGE(Tabla13[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
+        <v>1.95696525721939E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -18726,8 +20705,12 @@
       <c r="E3" s="11">
         <v>1.47591723760908E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f>AVERAGE(Tabla13[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
+        <v>1.5917710103226235E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -18743,8 +20726,12 @@
       <c r="E4" s="11">
         <v>1.46803637749585E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>AVERAGE(Tabla13[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
+        <v>1.5877105186568301E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1E-3</v>
       </c>
@@ -18760,8 +20747,12 @@
       <c r="E5" s="11">
         <v>1.48795633649125E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f>AVERAGE(Tabla13[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
+        <v>1.6042539928927201E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1E-3</v>
       </c>
@@ -18777,8 +20768,12 @@
       <c r="E6" s="11">
         <v>1.50344406132849E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f>AVERAGE(Tabla13[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
+        <v>1.6255130926449032E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>0.01</v>
       </c>
@@ -18794,8 +20789,12 @@
       <c r="E7" s="11">
         <v>1.5421134070399399E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f>AVERAGE(Tabla13[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
+        <v>1.6423684419997031E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>0.01</v>
       </c>
@@ -18810,6 +20809,10 @@
       </c>
       <c r="E8" s="15">
         <v>1.55247210427843E-2</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(Tabla13[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
+        <v>1.6561508245147936E-2</v>
       </c>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.25">
@@ -18818,6 +20821,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:G8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -26858,7 +28873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4B890F-8B14-4B73-BD4E-F188B39F3823}">
   <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
@@ -35070,7 +37085,7 @@
   <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37556,4 +39571,3444 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C075D4A0-DC5C-427A-8EBF-486DE5B8DC84}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="18" customWidth="1"/>
+    <col min="5" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B2">
+        <v>100000</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18">
+        <v>60</v>
+      </c>
+      <c r="E2" s="16">
+        <v>8.3389840000000007E-3</v>
+      </c>
+      <c r="F2" s="16">
+        <v>7.7918400000000004E-3</v>
+      </c>
+      <c r="G2" s="16">
+        <v>6.9937269999999999E-3</v>
+      </c>
+      <c r="I2" s="17">
+        <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
+        <v>7.7081836666666667E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>100000</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18">
+        <v>60</v>
+      </c>
+      <c r="E3" s="16">
+        <v>3.0544209999999999E-3</v>
+      </c>
+      <c r="F3" s="16">
+        <v>5.4286350000000002E-3</v>
+      </c>
+      <c r="G3" s="16">
+        <v>4.2403349999999996E-3</v>
+      </c>
+      <c r="I3" s="17">
+        <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
+        <v>4.2411303333333332E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.05</v>
+      </c>
+      <c r="B4">
+        <v>100000</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18">
+        <v>60</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1.9410510000000001E-3</v>
+      </c>
+      <c r="F4" s="16">
+        <v>4.6017030000000004E-3</v>
+      </c>
+      <c r="G4" s="16">
+        <v>4.401978E-3</v>
+      </c>
+      <c r="I4" s="17">
+        <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
+        <v>3.6482440000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.75</v>
+      </c>
+      <c r="B5">
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18">
+        <v>60</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1.782846E-3</v>
+      </c>
+      <c r="F5" s="16">
+        <v>4.5053369999999999E-3</v>
+      </c>
+      <c r="G5" s="16">
+        <v>4.582732E-3</v>
+      </c>
+      <c r="I5" s="17">
+        <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
+        <v>3.6236383333333334E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.1</v>
+      </c>
+      <c r="B6">
+        <v>100000</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18">
+        <v>60</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2.524447E-3</v>
+      </c>
+      <c r="F6" s="16">
+        <v>4.7653840000000001E-3</v>
+      </c>
+      <c r="G6" s="16">
+        <v>4.1366839999999998E-3</v>
+      </c>
+      <c r="I6" s="17">
+        <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
+        <v>3.8088383333333333E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.75</v>
+      </c>
+      <c r="B7">
+        <v>100000</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
+        <v>40</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2.9007880000000001E-3</v>
+      </c>
+      <c r="F7" s="16">
+        <v>4.3029030000000003E-3</v>
+      </c>
+      <c r="G7" s="16">
+        <v>3.9561010000000001E-3</v>
+      </c>
+      <c r="I7" s="17">
+        <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
+        <v>3.7199306666666665E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.75</v>
+      </c>
+      <c r="B8">
+        <v>100000</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18">
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>1.177719E-3</v>
+      </c>
+      <c r="F8">
+        <v>4.1366650000000003E-3</v>
+      </c>
+      <c r="G8">
+        <v>5.0596189999999996E-3</v>
+      </c>
+      <c r="I8" s="17">
+        <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
+        <v>3.458001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.75</v>
+      </c>
+      <c r="B9">
+        <v>100000</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>1.693033E-3</v>
+      </c>
+      <c r="F9">
+        <v>4.9526120000000003E-3</v>
+      </c>
+      <c r="G9">
+        <v>4.3019410000000001E-3</v>
+      </c>
+      <c r="I9" s="17">
+        <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
+        <v>3.6491953333333336E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.75</v>
+      </c>
+      <c r="B10">
+        <v>100000</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>9.3562310000000004E-4</v>
+      </c>
+      <c r="F10">
+        <v>4.0443253999999998E-3</v>
+      </c>
+      <c r="G10">
+        <v>6.1128850999999998E-3</v>
+      </c>
+      <c r="I10" s="17">
+        <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
+        <v>3.6976111999999996E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.75</v>
+      </c>
+      <c r="B11">
+        <v>100000</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>1.2945680000000001E-3</v>
+      </c>
+      <c r="F11">
+        <v>4.3313969999999999E-3</v>
+      </c>
+      <c r="G11">
+        <v>3.834652E-3</v>
+      </c>
+      <c r="I11" s="17">
+        <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
+        <v>3.1535390000000003E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I2:I11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAD257E-9228-4FA8-858F-B149F1B7B05B}">
+  <dimension ref="A1:O154"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.230755284428596</v>
+      </c>
+      <c r="B2">
+        <f>A2*($E$2-$E$3)+$E$3</f>
+        <v>20.85272621957283</v>
+      </c>
+      <c r="C2">
+        <v>0.22922636674290101</v>
+      </c>
+      <c r="D2">
+        <f>C2*($E$2-$E$3)+$E$3</f>
+        <v>20.729999999999933</v>
+      </c>
+      <c r="E2" s="2">
+        <v>82.599997999999999</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F65" si="0">B2-D2</f>
+        <v>0.12272621957289687</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.34441965818405201</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="1">A3*($E$2-$E$3)+$E$3</f>
+        <v>29.976565273594538</v>
+      </c>
+      <c r="C3">
+        <v>0.377476040300885</v>
+      </c>
+      <c r="D3">
+        <f>C3*($E$2-$E$3)+$E$3</f>
+        <v>32.630000999999957</v>
+      </c>
+      <c r="E3">
+        <v>2.33</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>-2.6534357264054194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.33477202057838401</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>29.202149422282844</v>
+      </c>
+      <c r="C4">
+        <v>0.35181264113149702</v>
+      </c>
+      <c r="D4">
+        <f>C4*($E$2-$E$3)+$E$3</f>
+        <v>30.569999999999986</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-1.3678505777171424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.25631183385848999</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>22.904150391197327</v>
+      </c>
+      <c r="C5">
+        <v>0.30634110642434498</v>
+      </c>
+      <c r="D5">
+        <f>C5*($E$2-$E$3)+$E$3</f>
+        <v>26.919999999999959</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-4.0158496088026325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.67935365438461304</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>56.861716478745578</v>
+      </c>
+      <c r="C6">
+        <v>0.51949669912786001</v>
+      </c>
+      <c r="D6">
+        <f>C6*($E$2-$E$3)+$E$3</f>
+        <v>44.029998999999926</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>12.831717478745652</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.28647485375404402</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>25.325335937887409</v>
+      </c>
+      <c r="C7">
+        <v>0.263984060395765</v>
+      </c>
+      <c r="D7">
+        <f>C7*($E$2-$E$3)+$E$3</f>
+        <v>23.519999999999939</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.8053359378874703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.524622082710266</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>44.441413529908885</v>
+      </c>
+      <c r="C8">
+        <v>0.51538559898805503</v>
+      </c>
+      <c r="D8">
+        <f>C8*($E$2-$E$3)+$E$3</f>
+        <v>43.700000999999979</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.74141252990890649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.62160110473632801</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>52.225919433982838</v>
+      </c>
+      <c r="C9">
+        <v>0.63249033592849901</v>
+      </c>
+      <c r="D9">
+        <f>C9*($E$2-$E$3)+$E$3</f>
+        <v>53.099997999999943</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-0.87407856601710421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.49002921581268299</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>41.664644173225632</v>
+      </c>
+      <c r="C10">
+        <v>0.48847641680519199</v>
+      </c>
+      <c r="D10">
+        <f>C10*($E$2-$E$3)+$E$3</f>
+        <v>41.540000999999926</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.12464317322570651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.14835377037525199</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>14.238356851313936</v>
+      </c>
+      <c r="C11">
+        <v>0.122710853935738</v>
+      </c>
+      <c r="D11">
+        <f>C11*($E$2-$E$3)+$E$3</f>
+        <v>12.179999999999982</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2.0583568513139543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.78402900695800803</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>65.26400682046129</v>
+      </c>
+      <c r="C12">
+        <v>0.78323157551343103</v>
+      </c>
+      <c r="D12">
+        <f>C12*($E$2-$E$3)+$E$3</f>
+        <v>65.199996999999968</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>6.400982046132242E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.143151134252548</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>13.820741260149759</v>
+      </c>
+      <c r="C13">
+        <v>6.21651940242978E-2</v>
+      </c>
+      <c r="D13">
+        <f>C13*($E$2-$E$3)+$E$3</f>
+        <v>7.3199999999999967</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>6.5007412601497627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.14869448542594901</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>14.265706047751957</v>
+      </c>
+      <c r="C14">
+        <v>0.140650308724313</v>
+      </c>
+      <c r="D14">
+        <f>C14*($E$2-$E$3)+$E$3</f>
+        <v>13.619999999999987</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.64570604775197005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.23662108182907099</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>21.323573765177365</v>
+      </c>
+      <c r="C15">
+        <v>0.17652921830146301</v>
+      </c>
+      <c r="D15">
+        <f>C15*($E$2-$E$3)+$E$3</f>
+        <v>16.5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>4.8235737651773647</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.28498116135597201</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>25.205437252081552</v>
+      </c>
+      <c r="C16">
+        <v>0.278186128770054</v>
+      </c>
+      <c r="D16">
+        <f>C16*($E$2-$E$3)+$E$3</f>
+        <v>24.659999999999975</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.54543725208157667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.16282144188880901</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>15.399676814771816</v>
+      </c>
+      <c r="C17">
+        <v>0.19870439015085001</v>
+      </c>
+      <c r="D17">
+        <f>C17*($E$2-$E$3)+$E$3</f>
+        <v>18.280000999999949</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-2.8803241852281332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.64524406194686901</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>54.123739561987051</v>
+      </c>
+      <c r="C18">
+        <v>0.60047340477073297</v>
+      </c>
+      <c r="D18">
+        <f>C18*($E$2-$E$3)+$E$3</f>
+        <v>50.529998999999926</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>3.5937405619871257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.120339214801788</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>11.989628531461094</v>
+      </c>
+      <c r="C19">
+        <v>0.10539429688287701</v>
+      </c>
+      <c r="D19">
+        <f>C19*($E$2-$E$3)+$E$3</f>
+        <v>10.789999999999944</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.1996285314611494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.28579974174499501</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>25.271144698271264</v>
+      </c>
+      <c r="C20">
+        <v>0.24405133285290401</v>
+      </c>
+      <c r="D20">
+        <f>C20*($E$2-$E$3)+$E$3</f>
+        <v>21.919999999999938</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>3.3511446982713267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.59598731994628895</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>50.169900980113972</v>
+      </c>
+      <c r="C21">
+        <v>0.60682698659093004</v>
+      </c>
+      <c r="D21">
+        <f>C21*($E$2-$E$3)+$E$3</f>
+        <v>51.040000999999982</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>-0.87010001988601005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.45566010475158703</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>38.905835697089678</v>
+      </c>
+      <c r="C22">
+        <v>0.43640216609946803</v>
+      </c>
+      <c r="D22">
+        <f>C22*($E$2-$E$3)+$E$3</f>
+        <v>37.360000999999968</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1.5458346970897097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.20728403329849199</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>18.968688938301888</v>
+      </c>
+      <c r="C23">
+        <v>0.16494332041717499</v>
+      </c>
+      <c r="D23">
+        <f>C23*($E$2-$E$3)+$E$3</f>
+        <v>15.569999999999997</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>3.3986889383018912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.251234531402588</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>22.496595333216675</v>
+      </c>
+      <c r="C24">
+        <v>0.30634110642434498</v>
+      </c>
+      <c r="D24">
+        <f>C24*($E$2-$E$3)+$E$3</f>
+        <v>26.919999999999959</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>-4.4234046667832843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.49151563644409202</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>41.783959154335996</v>
+      </c>
+      <c r="C25">
+        <v>0.40376233720598798</v>
+      </c>
+      <c r="D25">
+        <f>C25*($E$2-$E$3)+$E$3</f>
+        <v>34.740001999999976</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>7.0439571543360202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.314518392086029</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>27.576390703708761</v>
+      </c>
+      <c r="C26">
+        <v>0.24068768508004601</v>
+      </c>
+      <c r="D26">
+        <f>C26*($E$2-$E$3)+$E$3</f>
+        <v>21.64999999999992</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>5.9263907037088401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.42823117971420299</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>36.704115939196711</v>
+      </c>
+      <c r="C27">
+        <v>0.43727421047151299</v>
+      </c>
+      <c r="D27">
+        <f>C27*($E$2-$E$3)+$E$3</f>
+        <v>37.429999999999929</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>-0.72588406080321732</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.25821870565414401</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>23.057214986420732</v>
+      </c>
+      <c r="C28">
+        <v>0.27482246853924103</v>
+      </c>
+      <c r="D28">
+        <f>C28*($E$2-$E$3)+$E$3</f>
+        <v>24.389998999999939</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>-1.3327840135792073</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.43228384852409402</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>37.029423656461326</v>
+      </c>
+      <c r="C29">
+        <v>0.431169800203558</v>
+      </c>
+      <c r="D29">
+        <f>C29*($E$2-$E$3)+$E$3</f>
+        <v>36.939999</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>8.9424656461325469E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.202533364295959</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>18.587352746969898</v>
+      </c>
+      <c r="C30">
+        <v>0.24903451473862001</v>
+      </c>
+      <c r="D30">
+        <f>C30*($E$2-$E$3)+$E$3</f>
+        <v>22.32</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>-3.7326472530301018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.36755523085594199</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>31.833657645696</v>
+      </c>
+      <c r="C31">
+        <v>0.26186620809433597</v>
+      </c>
+      <c r="D31">
+        <f>C31*($E$2-$E$3)+$E$3</f>
+        <v>23.34999999999993</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>8.4836576456960699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.912700295448303</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>75.592450890234687</v>
+      </c>
+      <c r="C32">
+        <v>0.95888881173262197</v>
+      </c>
+      <c r="D32">
+        <f>C32*($E$2-$E$3)+$E$3</f>
+        <v>79.300002999999947</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>-3.7075521097652597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.58100306987762496</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>48.967115257070816</v>
+      </c>
+      <c r="C33">
+        <v>0.55687056327072504</v>
+      </c>
+      <c r="D33">
+        <f>C33*($E$2-$E$3)+$E$3</f>
+        <v>47.029998999999968</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1.9371162570708478</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.371899753808975</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>32.182392494446916</v>
+      </c>
+      <c r="C34">
+        <v>0.37373866634455299</v>
+      </c>
+      <c r="D34">
+        <f>C34*($E$2-$E$3)+$E$3</f>
+        <v>32.330001999999936</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>-0.14760950555302088</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.59978467226028398</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>50.474714442763648</v>
+      </c>
+      <c r="C35">
+        <v>0.61043980591602798</v>
+      </c>
+      <c r="D35">
+        <f>C35*($E$2-$E$3)+$E$3</f>
+        <v>51.330001999999951</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>-0.85528755723630212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.33495971560478199</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>29.217215701676423</v>
+      </c>
+      <c r="C36">
+        <v>0.40164445998864901</v>
+      </c>
+      <c r="D36">
+        <f>C36*($E$2-$E$3)+$E$3</f>
+        <v>34.569999999999936</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>-5.3527842983235132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.75688630342483498</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>63.085262062138895</v>
+      </c>
+      <c r="C37">
+        <v>0.80067272457138905</v>
+      </c>
+      <c r="D37">
+        <f>C37*($E$2-$E$3)+$E$3</f>
+        <v>66.599997999999943</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>-3.5147359378610474</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.48079997301101701</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>40.923812871994386</v>
+      </c>
+      <c r="C38">
+        <v>0.513890656880295</v>
+      </c>
+      <c r="D38">
+        <f>C38*($E$2-$E$3)+$E$3</f>
+        <v>43.580001999999965</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>-2.6561891280055789</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.59663367271423295</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>50.221783715504131</v>
+      </c>
+      <c r="C39">
+        <v>0.63074623472645397</v>
+      </c>
+      <c r="D39">
+        <f>C39*($E$2-$E$3)+$E$3</f>
+        <v>52.959998999999989</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>-2.7382152844958583</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.104413747787476</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>10.711291326073203</v>
+      </c>
+      <c r="C40">
+        <v>0.12732029718002399</v>
+      </c>
+      <c r="D40">
+        <f>C40*($E$2-$E$3)+$E$3</f>
+        <v>12.549999999999931</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>-1.8387086739267282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.67718064785003695</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>56.687289248561171</v>
+      </c>
+      <c r="C41">
+        <v>0.59349697504664201</v>
+      </c>
+      <c r="D41">
+        <f>C41*($E$2-$E$3)+$E$3</f>
+        <v>49.970001000000003</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>6.717288248561168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.40365076065063499</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>34.731045750124949</v>
+      </c>
+      <c r="C42">
+        <v>0.45135171175661398</v>
+      </c>
+      <c r="D42">
+        <f>C42*($E$2-$E$3)+$E$3</f>
+        <v>38.560000999999978</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>-3.8289552498750297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.26261457800865201</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>23.410071651525342</v>
+      </c>
+      <c r="C43">
+        <v>0.28952286756005602</v>
+      </c>
+      <c r="D43">
+        <f>C43*($E$2-$E$3)+$E$3</f>
+        <v>25.569999999999965</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>-2.1599283484746223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.335280060768127</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>29.242929807297436</v>
+      </c>
+      <c r="C44">
+        <v>0.317677845214347</v>
+      </c>
+      <c r="D44">
+        <f>C44*($E$2-$E$3)+$E$3</f>
+        <v>27.829999999999941</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>1.4129298072974947</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.228185430169106</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>20.646444023303282</v>
+      </c>
+      <c r="C45">
+        <v>0.22972468493147299</v>
+      </c>
+      <c r="D45">
+        <f>C45*($E$2-$E$3)+$E$3</f>
+        <v>20.769999999999968</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>-0.12355597669668583</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.21751284599304199</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>19.789755712835792</v>
+      </c>
+      <c r="C46">
+        <v>0.16207799083288801</v>
+      </c>
+      <c r="D46">
+        <f>C46*($E$2-$E$3)+$E$3</f>
+        <v>15.339999999999939</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>4.4497557128358523</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.75323790311813399</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>62.792404976816805</v>
+      </c>
+      <c r="C47">
+        <v>0.95265983437547797</v>
+      </c>
+      <c r="D47">
+        <f>C47*($E$2-$E$3)+$E$3</f>
+        <v>78.800002999999947</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>-16.007598023183142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.14029198884964</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>13.591237664376626</v>
+      </c>
+      <c r="C48">
+        <v>0.16207799083288801</v>
+      </c>
+      <c r="D48">
+        <f>C48*($E$2-$E$3)+$E$3</f>
+        <v>15.339999999999939</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>-1.7487623356233133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.15292257070541401</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>14.605094444678441</v>
+      </c>
+      <c r="C49">
+        <v>0.135417967744312</v>
+      </c>
+      <c r="D49">
+        <f>C49*($E$2-$E$3)+$E$3</f>
+        <v>13.199999999999989</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>1.4050944446784523</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.29660570621490501</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>26.13853944465901</v>
+      </c>
+      <c r="C50">
+        <v>0.263984060395765</v>
+      </c>
+      <c r="D50">
+        <f>C50*($E$2-$E$3)+$E$3</f>
+        <v>23.519999999999939</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>2.6185394446590706</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.41087099909782399</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>35.310614275840329</v>
+      </c>
+      <c r="C51">
+        <v>0.423819594464173</v>
+      </c>
+      <c r="D51">
+        <f>C51*($E$2-$E$3)+$E$3</f>
+        <v>36.349997999999978</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>-1.0393837241596486</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.327660411596298</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>28.631300583514019</v>
+      </c>
+      <c r="C52">
+        <v>0.31817617586087299</v>
+      </c>
+      <c r="D52">
+        <f>C52*($E$2-$E$3)+$E$3</f>
+        <v>27.870000999999924</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0.76129958351409499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.39139255881309498</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>33.747079913142016</v>
+      </c>
+      <c r="C53">
+        <v>0.36613927659497297</v>
+      </c>
+      <c r="D53">
+        <f>C53*($E$2-$E$3)+$E$3</f>
+        <v>31.71999899999993</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>2.0270809131420862</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.54947102069854703</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>46.43603773253033</v>
+      </c>
+      <c r="C54">
+        <v>0.53531830161500604</v>
+      </c>
+      <c r="D54">
+        <f>C54*($E$2-$E$3)+$E$3</f>
+        <v>45.299998999999929</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>1.1360387325304018</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.51446092128753695</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>43.625777122828751</v>
+      </c>
+      <c r="C55">
+        <v>0.47115987221028699</v>
+      </c>
+      <c r="D55">
+        <f>C55*($E$2-$E$3)+$E$3</f>
+        <v>40.150001999999994</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>3.4757751228287574</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.87768661975860596</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>72.781903212650064</v>
+      </c>
+      <c r="C56">
+        <v>0.93397290230404595</v>
+      </c>
+      <c r="D56">
+        <f>C56*($E$2-$E$3)+$E$3</f>
+        <v>77.300002999999961</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>-4.5180997873498967</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.44339242577552801</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>37.921109130216777</v>
+      </c>
+      <c r="C57">
+        <v>0.51152360811071595</v>
+      </c>
+      <c r="D57">
+        <f>C57*($E$2-$E$3)+$E$3</f>
+        <v>43.389998999999953</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>-5.468889869783176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.43398678302764898</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>37.166118205655813</v>
+      </c>
+      <c r="C58">
+        <v>0.50977950690867002</v>
+      </c>
+      <c r="D58">
+        <f>C58*($E$2-$E$3)+$E$3</f>
+        <v>43.249999999999929</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>-6.0838817943441157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.57190239429473899</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>48.236604046233907</v>
+      </c>
+      <c r="C59">
+        <v>0.60682698659093004</v>
+      </c>
+      <c r="D59">
+        <f>C59*($E$2-$E$3)+$E$3</f>
+        <v>51.040000999999982</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>-2.8033969537660752</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.23660230636596699</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>21.322066658791556</v>
+      </c>
+      <c r="C60">
+        <v>0.23458328727004499</v>
+      </c>
+      <c r="D60">
+        <f>C60*($E$2-$E$3)+$E$3</f>
+        <v>21.15999999999994</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0.16206665879161619</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.81143331527710005</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>67.463750594426187</v>
+      </c>
+      <c r="C61">
+        <v>0.92076740801712698</v>
+      </c>
+      <c r="D61">
+        <f>C61*($E$2-$E$3)+$E$3</f>
+        <v>76.239997999999972</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>-8.776247405573784</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.38255244493484503</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="1"/>
+        <v>33.037483989815122</v>
+      </c>
+      <c r="C62">
+        <v>0.38208547108721702</v>
+      </c>
+      <c r="D62">
+        <f>C62*($E$2-$E$3)+$E$3</f>
+        <v>32.999999999999972</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>3.7483989815150665E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.57878082990646396</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="1"/>
+        <v>48.788736059030199</v>
+      </c>
+      <c r="C63">
+        <v>0.45434159597213303</v>
+      </c>
+      <c r="D63">
+        <f>C63*($E$2-$E$3)+$E$3</f>
+        <v>38.799998999999922</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>9.988737059030278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.36053895950317399</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="1"/>
+        <v>31.270461558241855</v>
+      </c>
+      <c r="C64">
+        <v>0.33511898181435101</v>
+      </c>
+      <c r="D64">
+        <f>C64*($E$2-$E$3)+$E$3</f>
+        <v>29.22999999999999</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>2.0404615582418657</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.57524836063384999</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="1"/>
+        <v>48.505184757582413</v>
+      </c>
+      <c r="C65">
+        <v>0.54690421195724903</v>
+      </c>
+      <c r="D65">
+        <f>C65*($E$2-$E$3)+$E$3</f>
+        <v>46.229999999999954</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>2.2751847575824584</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.44998121261596702</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="1"/>
+        <v>38.449991036721244</v>
+      </c>
+      <c r="C66">
+        <v>0.47290397341233198</v>
+      </c>
+      <c r="D66">
+        <f>C66*($E$2-$E$3)+$E$3</f>
+        <v>40.29000099999994</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ref="F66:F129" si="2">B66-D66</f>
+        <v>-1.8400099632786961</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.54949700832366899</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B130" si="3">A67*($E$2-$E$3)+$E$3</f>
+        <v>46.43812375914689</v>
+      </c>
+      <c r="C67">
+        <v>0.56671235995296698</v>
+      </c>
+      <c r="D67">
+        <f>C67*($E$2-$E$3)+$E$3</f>
+        <v>47.819999999999936</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="2"/>
+        <v>-1.3818762408530461</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.40449348092079201</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="3"/>
+        <v>34.79869090452501</v>
+      </c>
+      <c r="C68">
+        <v>0.31020307238577399</v>
+      </c>
+      <c r="D68">
+        <f>C68*($E$2-$E$3)+$E$3</f>
+        <v>27.229999999999933</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>7.5686909045250772</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.45769211649894698</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="3"/>
+        <v>39.068945275986238</v>
+      </c>
+      <c r="C69">
+        <v>0.46156723462233001</v>
+      </c>
+      <c r="D69">
+        <f>C69*($E$2-$E$3)+$E$3</f>
+        <v>39.380000999999957</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>-0.31105572401371973</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.64438343048095703</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="3"/>
+        <v>54.054656675939562</v>
+      </c>
+      <c r="C70">
+        <v>0.60657781503868902</v>
+      </c>
+      <c r="D70">
+        <f>C70*($E$2-$E$3)+$E$3</f>
+        <v>51.019999999999939</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>3.0346566759396225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.54996359348297097</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="3"/>
+        <v>46.47557654895089</v>
+      </c>
+      <c r="C71">
+        <v>0.511399053479483</v>
+      </c>
+      <c r="D71">
+        <f>C71*($E$2-$E$3)+$E$3</f>
+        <v>43.380000999999993</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>3.0955755489508974</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.480112314224243</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="3"/>
+        <v>40.868614502555353</v>
+      </c>
+      <c r="C72">
+        <v>0.47626762118519</v>
+      </c>
+      <c r="D72">
+        <f>C72*($E$2-$E$3)+$E$3</f>
+        <v>40.560000999999957</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>0.30861350255539577</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.59716284275054898</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="3"/>
+        <v>50.264260193260881</v>
+      </c>
+      <c r="C73">
+        <v>0.41896100458355501</v>
+      </c>
+      <c r="D73">
+        <f>C73*($E$2-$E$3)+$E$3</f>
+        <v>35.959998999999947</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>14.304261193260935</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.77198553085327104</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="3"/>
+        <v>64.297277017621013</v>
+      </c>
+      <c r="C74">
+        <v>0.869191475499974</v>
+      </c>
+      <c r="D74">
+        <f>C74*($E$2-$E$3)+$E$3</f>
+        <v>72.099997999999957</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>-7.8027209823789434</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.50168222188949596</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="3"/>
+        <v>42.600030947705399</v>
+      </c>
+      <c r="C75">
+        <v>0.51775258546785996</v>
+      </c>
+      <c r="D75">
+        <f>C75*($E$2-$E$3)+$E$3</f>
+        <v>43.889998999999946</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>-1.2899680522945474</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.40445566177368197</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="3"/>
+        <v>34.795655161662125</v>
+      </c>
+      <c r="C76">
+        <v>0.44437524465865802</v>
+      </c>
+      <c r="D76">
+        <f>C76*($E$2-$E$3)+$E$3</f>
+        <v>37.999999999999986</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>-3.2043448383378603</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.31032413244247398</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="3"/>
+        <v>27.239717490509122</v>
+      </c>
+      <c r="C77">
+        <v>0.36813254934925999</v>
+      </c>
+      <c r="D77">
+        <f>C77*($E$2-$E$3)+$E$3</f>
+        <v>31.879998999999998</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>-4.640281509490876</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.408807843923569</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="3"/>
+        <v>35.145004814129194</v>
+      </c>
+      <c r="C78">
+        <v>0.37099790384945502</v>
+      </c>
+      <c r="D78">
+        <f>C78*($E$2-$E$3)+$E$3</f>
+        <v>32.110000999999947</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>3.0350038141292472</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.37375617027282698</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="3"/>
+        <v>32.33140704028748</v>
+      </c>
+      <c r="C79">
+        <v>0.26062041262290803</v>
+      </c>
+      <c r="D79">
+        <f>C79*($E$2-$E$3)+$E$3</f>
+        <v>23.25</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>9.0814070402874805</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.21748018264770499</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="3"/>
+        <v>19.787133826170916</v>
+      </c>
+      <c r="C80">
+        <v>0.26248910583005097</v>
+      </c>
+      <c r="D80">
+        <f>C80*($E$2-$E$3)+$E$3</f>
+        <v>23.399999999999977</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>-3.6128661738290617</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.30693721771240201</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="3"/>
+        <v>26.967849851900077</v>
+      </c>
+      <c r="C81">
+        <v>0.28466426522148403</v>
+      </c>
+      <c r="D81">
+        <f>C81*($E$2-$E$3)+$E$3</f>
+        <v>25.179999999999993</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>1.7878498519000843</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.45890274643897999</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="3"/>
+        <v>39.166122538851432</v>
+      </c>
+      <c r="C82">
+        <v>0.43528093771722698</v>
+      </c>
+      <c r="D82">
+        <f>C82*($E$2-$E$3)+$E$3</f>
+        <v>37.269999999999932</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>1.8961225388515004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.382408887147903</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="3"/>
+        <v>33.025960606544402</v>
+      </c>
+      <c r="C83">
+        <v>0.46057057332927798</v>
+      </c>
+      <c r="D83">
+        <f>C83*($E$2-$E$3)+$E$3</f>
+        <v>39.299998999999993</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>-6.2740383934555908</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.37648090720176702</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="3"/>
+        <v>32.550121668124028</v>
+      </c>
+      <c r="C84">
+        <v>0.39205182240069297</v>
+      </c>
+      <c r="D84">
+        <f>C84*($E$2-$E$3)+$E$3</f>
+        <v>33.799998999999978</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>-1.2498773318759504</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.37831842899322499</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="3"/>
+        <v>32.697619538649313</v>
+      </c>
+      <c r="C85">
+        <v>0.38706867788884203</v>
+      </c>
+      <c r="D85">
+        <f>C85*($E$2-$E$3)+$E$3</f>
+        <v>33.400001999999994</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>-0.70238246135068039</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.46412292122840898</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="3"/>
+        <v>39.585145958758545</v>
+      </c>
+      <c r="C86">
+        <v>0.46655039159213602</v>
+      </c>
+      <c r="D86">
+        <f>C86*($E$2-$E$3)+$E$3</f>
+        <v>39.779998999999975</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="2"/>
+        <v>-0.19485304124142999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.25314152240753202</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="3"/>
+        <v>22.649669497369551</v>
+      </c>
+      <c r="C87">
+        <v>0.270835935488624</v>
+      </c>
+      <c r="D87">
+        <f>C87*($E$2-$E$3)+$E$3</f>
+        <v>24.069999999999979</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>-1.4203305026304278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.28333747386932401</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="3"/>
+        <v>25.073498460815692</v>
+      </c>
+      <c r="C88">
+        <v>0.306590277976585</v>
+      </c>
+      <c r="D88">
+        <f>C88*($E$2-$E$3)+$E$3</f>
+        <v>26.940000999999924</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="2"/>
+        <v>-1.866502539184232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.67767530679702803</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="3"/>
+        <v>56.726995521246828</v>
+      </c>
+      <c r="C89">
+        <v>0.70113370377809103</v>
+      </c>
+      <c r="D89">
+        <f>C89*($E$2-$E$3)+$E$3</f>
+        <v>58.610000999999961</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="2"/>
+        <v>-1.8830054787531338</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.43393737077713002</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="3"/>
+        <v>37.162151884405482</v>
+      </c>
+      <c r="C90">
+        <v>0.49943937957990198</v>
+      </c>
+      <c r="D90">
+        <f>C90*($E$2-$E$3)+$E$3</f>
+        <v>42.419997999999971</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="2"/>
+        <v>-5.2578461155944893</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.48734095692634599</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="3"/>
+        <v>41.448857637795875</v>
+      </c>
+      <c r="C91">
+        <v>0.50292764427376702</v>
+      </c>
+      <c r="D91">
+        <f>C91*($E$2-$E$3)+$E$3</f>
+        <v>42.700000999999986</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="2"/>
+        <v>-1.251143362204111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.27368634939193698</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="3"/>
+        <v>24.298802718318086</v>
+      </c>
+      <c r="C92">
+        <v>0.315809152007204</v>
+      </c>
+      <c r="D92">
+        <f>C92*($E$2-$E$3)+$E$3</f>
+        <v>27.679999999999964</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="2"/>
+        <v>-3.3811972816818781</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.509047031402588</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="3"/>
+        <v>43.191204192591677</v>
+      </c>
+      <c r="C93">
+        <v>0.55400523368643895</v>
+      </c>
+      <c r="D93">
+        <f>C93*($E$2-$E$3)+$E$3</f>
+        <v>46.799998999999985</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="2"/>
+        <v>-3.6087948074083087</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.56095951795578003</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="3"/>
+        <v>47.358219384391425</v>
+      </c>
+      <c r="C94">
+        <v>0.58390434991663998</v>
+      </c>
+      <c r="D94">
+        <f>C94*($E$2-$E$3)+$E$3</f>
+        <v>49.200000999999993</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="2"/>
+        <v>-1.8417816156085678</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.35283756256103499</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="3"/>
+        <v>30.652270441099155</v>
+      </c>
+      <c r="C95">
+        <v>0.27419958326148203</v>
+      </c>
+      <c r="D95">
+        <f>C95*($E$2-$E$3)+$E$3</f>
+        <v>24.339999999999996</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="2"/>
+        <v>6.3122704410991588</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.202195033431053</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="3"/>
+        <v>18.560194929120556</v>
+      </c>
+      <c r="C96">
+        <v>0.21627010629799601</v>
+      </c>
+      <c r="D96">
+        <f>C96*($E$2-$E$3)+$E$3</f>
+        <v>19.690000999999924</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="2"/>
+        <v>-1.1298060708793685</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.912700295448303</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="3"/>
+        <v>75.592450890234687</v>
+      </c>
+      <c r="C97">
+        <v>0.95888881173262197</v>
+      </c>
+      <c r="D97">
+        <f>C97*($E$2-$E$3)+$E$3</f>
+        <v>79.300002999999947</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="2"/>
+        <v>-3.7075521097652597</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.57315170764923096</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="3"/>
+        <v>48.336886426700353</v>
+      </c>
+      <c r="C98">
+        <v>0.54653048577377505</v>
+      </c>
+      <c r="D98">
+        <f>C98*($E$2-$E$3)+$E$3</f>
+        <v>46.200000999999951</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="2"/>
+        <v>2.1368854267004025</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.41583052277565002</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="3"/>
+        <v>35.708715231540381</v>
+      </c>
+      <c r="C99">
+        <v>0.402890230544169</v>
+      </c>
+      <c r="D99">
+        <f>C99*($E$2-$E$3)+$E$3</f>
+        <v>34.669997999999985</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="2"/>
+        <v>1.0387172315403959</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0.161550357937813</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="3"/>
+        <v>15.297646908567534</v>
+      </c>
+      <c r="C100">
+        <v>0.19882896969799299</v>
+      </c>
+      <c r="D100">
+        <f>C100*($E$2-$E$3)+$E$3</f>
+        <v>18.290000999999958</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="2"/>
+        <v>-2.9923540914324231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0.32059469819068898</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="3"/>
+        <v>28.06413578257721</v>
+      </c>
+      <c r="C101">
+        <v>0.35754331275802398</v>
+      </c>
+      <c r="D101">
+        <f>C101*($E$2-$E$3)+$E$3</f>
+        <v>31.030000999999963</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="2"/>
+        <v>-2.9658652174227527</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>0.40770551562309298</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="3"/>
+        <v>35.056520923654638</v>
+      </c>
+      <c r="C102">
+        <v>0.39703502920231698</v>
+      </c>
+      <c r="D102">
+        <f>C102*($E$2-$E$3)+$E$3</f>
+        <v>34.200000999999929</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="2"/>
+        <v>0.85651992365470875</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0.40561565756797802</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="3"/>
+        <v>34.88876802175028</v>
+      </c>
+      <c r="C103">
+        <v>0.425065427309466</v>
+      </c>
+      <c r="D103">
+        <f>C103*($E$2-$E$3)+$E$3</f>
+        <v>36.450000999999979</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="2"/>
+        <v>-1.5612329782496985</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>0.28389766812324502</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="3"/>
+        <v>25.11846525245754</v>
+      </c>
+      <c r="C104">
+        <v>0.29450603698781702</v>
+      </c>
+      <c r="D104">
+        <f>C104*($E$2-$E$3)+$E$3</f>
+        <v>25.969999000000001</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="2"/>
+        <v>-0.85153374754246158</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>0.55041015148162797</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="3"/>
+        <v>46.51142175860997</v>
+      </c>
+      <c r="C105">
+        <v>0.57082350992459197</v>
+      </c>
+      <c r="D105">
+        <f>C105*($E$2-$E$3)+$E$3</f>
+        <v>48.150001999999979</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="2"/>
+        <v>-1.6385802413900095</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>0.34296187758445701</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="3"/>
+        <v>29.859549227780612</v>
+      </c>
+      <c r="C106">
+        <v>0.50741250797090998</v>
+      </c>
+      <c r="D106">
+        <f>C106*($E$2-$E$3)+$E$3</f>
+        <v>43.060000999999929</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="2"/>
+        <v>-13.200451772219317</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>0.40791156888008101</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="3"/>
+        <v>35.073060818180963</v>
+      </c>
+      <c r="C107">
+        <v>0.34035132279435198</v>
+      </c>
+      <c r="D107">
+        <f>C107*($E$2-$E$3)+$E$3</f>
+        <v>29.649999999999991</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="2"/>
+        <v>5.4230608181809714</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>0.48009574413299599</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="3"/>
+        <v>40.867284421364097</v>
+      </c>
+      <c r="C108">
+        <v>0.45010589136927598</v>
+      </c>
+      <c r="D108">
+        <f>C108*($E$2-$E$3)+$E$3</f>
+        <v>38.459998999999996</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="2"/>
+        <v>2.4072854213641008</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>0.26210102438926702</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="3"/>
+        <v>23.368848703524414</v>
+      </c>
+      <c r="C109">
+        <v>0.24442508395228801</v>
+      </c>
+      <c r="D109">
+        <f>C109*($E$2-$E$3)+$E$3</f>
+        <v>21.950000999999993</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="2"/>
+        <v>1.4188477035244205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>0.52320128679275502</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="3"/>
+        <v>44.327366244451873</v>
+      </c>
+      <c r="C110">
+        <v>0.45758068911375799</v>
+      </c>
+      <c r="D110">
+        <f>C110*($E$2-$E$3)+$E$3</f>
+        <v>39.060000999999971</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="2"/>
+        <v>5.2673652444519021</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>0.15587505698203999</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="3"/>
+        <v>14.842090512198236</v>
+      </c>
+      <c r="C111">
+        <v>0.122710853935738</v>
+      </c>
+      <c r="D111">
+        <f>C111*($E$2-$E$3)+$E$3</f>
+        <v>12.179999999999982</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="2"/>
+        <v>2.6620905121982545</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0.68930852413177501</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="3"/>
+        <v>57.660793853440531</v>
+      </c>
+      <c r="C112">
+        <v>0.84103647292977302</v>
+      </c>
+      <c r="D112">
+        <f>C112*($E$2-$E$3)+$E$3</f>
+        <v>69.839995999999928</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="2"/>
+        <v>-12.179202146559398</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>0.65105795860290505</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="3"/>
+        <v>54.590421034939268</v>
+      </c>
+      <c r="C113">
+        <v>0.73028531780952499</v>
+      </c>
+      <c r="D113">
+        <f>C113*($E$2-$E$3)+$E$3</f>
+        <v>60.950000999999936</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="2"/>
+        <v>-6.3595799650606679</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>0.30819666385650601</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="3"/>
+        <v>27.068945591368411</v>
+      </c>
+      <c r="C114">
+        <v>0.36800799471802598</v>
+      </c>
+      <c r="D114">
+        <f>C114*($E$2-$E$3)+$E$3</f>
+        <v>31.870000999999959</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="2"/>
+        <v>-4.801055408631548</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0.33091652393341098</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="3"/>
+        <v>28.892668714301848</v>
+      </c>
+      <c r="C115">
+        <v>0.28466426522148403</v>
+      </c>
+      <c r="D115">
+        <f>C115*($E$2-$E$3)+$E$3</f>
+        <v>25.179999999999993</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="2"/>
+        <v>3.7126687143018557</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>0.68447285890579201</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="3"/>
+        <v>57.272635015422203</v>
+      </c>
+      <c r="C116">
+        <v>0.64768906559584005</v>
+      </c>
+      <c r="D116">
+        <f>C116*($E$2-$E$3)+$E$3</f>
+        <v>54.319999999999951</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="2"/>
+        <v>2.9526350154222527</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>0.400079905986786</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="3"/>
+        <v>34.444413253399496</v>
+      </c>
+      <c r="C117">
+        <v>0.40064784852741597</v>
+      </c>
+      <c r="D117">
+        <f>C117*($E$2-$E$3)+$E$3</f>
+        <v>34.490001999999983</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="2"/>
+        <v>-4.5588746600486729E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>0.63606584072113004</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="3"/>
+        <v>53.387003762553427</v>
+      </c>
+      <c r="C118">
+        <v>0.62426809827502405</v>
+      </c>
+      <c r="D118">
+        <f>C118*($E$2-$E$3)+$E$3</f>
+        <v>52.439998999999986</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="2"/>
+        <v>0.94700476255344057</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0.75005573034286499</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="3"/>
+        <v>62.536971974510308</v>
+      </c>
+      <c r="C119">
+        <v>0.72206306769809503</v>
+      </c>
+      <c r="D119">
+        <f>C119*($E$2-$E$3)+$E$3</f>
+        <v>60.290000999999954</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="2"/>
+        <v>2.2469709745103543</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>0.46920344233512901</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="3"/>
+        <v>39.99295937783392</v>
+      </c>
+      <c r="C120">
+        <v>0.46057057332927798</v>
+      </c>
+      <c r="D120">
+        <f>C120*($E$2-$E$3)+$E$3</f>
+        <v>39.299998999999993</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="2"/>
+        <v>0.69296037783392705</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>0.42565211653709401</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="3"/>
+        <v>36.497094543128298</v>
+      </c>
+      <c r="C121">
+        <v>0.50218014207499995</v>
+      </c>
+      <c r="D121">
+        <f>C121*($E$2-$E$3)+$E$3</f>
+        <v>42.63999899999996</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="2"/>
+        <v>-6.142904456871662</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>0.54988282918930098</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="3"/>
+        <v>46.46909359925953</v>
+      </c>
+      <c r="C122">
+        <v>0.51663136954357403</v>
+      </c>
+      <c r="D122">
+        <f>C122*($E$2-$E$3)+$E$3</f>
+        <v>43.79999899999995</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="2"/>
+        <v>2.66909459925958</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>0.412671267986298</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="3"/>
+        <v>35.455121855917604</v>
+      </c>
+      <c r="C123">
+        <v>0.35031769902373699</v>
+      </c>
+      <c r="D123">
+        <f>C123*($E$2-$E$3)+$E$3</f>
+        <v>30.450000999999972</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="2"/>
+        <v>5.0051208559176317</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>0.202195033431053</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="3"/>
+        <v>18.560194929120556</v>
+      </c>
+      <c r="C124">
+        <v>0.21627010629799601</v>
+      </c>
+      <c r="D124">
+        <f>C124*($E$2-$E$3)+$E$3</f>
+        <v>19.690000999999924</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="2"/>
+        <v>-1.1298060708793685</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>0.15927067399024999</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="3"/>
+        <v>15.114656682656019</v>
+      </c>
+      <c r="C125">
+        <v>0.139404513252884</v>
+      </c>
+      <c r="D125">
+        <f>C125*($E$2-$E$3)+$E$3</f>
+        <v>13.519999999999973</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="2"/>
+        <v>1.594656682656046</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>0.216640114784241</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="3"/>
+        <v>19.719701580450796</v>
+      </c>
+      <c r="C126">
+        <v>0.29811885631291501</v>
+      </c>
+      <c r="D126">
+        <f>C126*($E$2-$E$3)+$E$3</f>
+        <v>26.259999999999977</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="2"/>
+        <v>-6.5402984195491811</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0.44828483462333701</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="3"/>
+        <v>38.313822778645594</v>
+      </c>
+      <c r="C127">
+        <v>0.38881277909088702</v>
+      </c>
+      <c r="D127">
+        <f>C127*($E$2-$E$3)+$E$3</f>
+        <v>33.54000099999994</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="2"/>
+        <v>4.7738217786456545</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>0.35309359431266801</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="3"/>
+        <v>30.672822109290671</v>
+      </c>
+      <c r="C128">
+        <v>0.34122336716639701</v>
+      </c>
+      <c r="D128">
+        <f>C128*($E$2-$E$3)+$E$3</f>
+        <v>29.719998999999952</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="2"/>
+        <v>0.95282310929071912</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>0.505534708499908</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="3"/>
+        <v>42.909270040218196</v>
+      </c>
+      <c r="C129">
+        <v>0.67895855684461304</v>
+      </c>
+      <c r="D129">
+        <f>C129*($E$2-$E$3)+$E$3</f>
+        <v>56.830001999999972</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="2"/>
+        <v>-13.920731959781776</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>0.12628296017646801</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="3"/>
+        <v>12.466732960799167</v>
+      </c>
+      <c r="C130">
+        <v>9.2313444432875105E-2</v>
+      </c>
+      <c r="D130">
+        <f>C130*($E$2-$E$3)+$E$3</f>
+        <v>9.7399999999999949</v>
+      </c>
+      <c r="F130">
+        <f t="shared" ref="F130:F138" si="4">B130-D130</f>
+        <v>2.7267329607991719</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>0.48537331819534302</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ref="B131:B154" si="5">A131*($E$2-$E$3)+$E$3</f>
+        <v>41.290915280793548</v>
+      </c>
+      <c r="C131">
+        <v>0.43154356376089598</v>
+      </c>
+      <c r="D131">
+        <f>C131*($E$2-$E$3)+$E$3</f>
+        <v>36.970000999999989</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="4"/>
+        <v>4.3209142807935592</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>0.87153673171997104</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="5"/>
+        <v>72.288251712088609</v>
+      </c>
+      <c r="C132">
+        <v>0.60022423321849305</v>
+      </c>
+      <c r="D132">
+        <f>C132*($E$2-$E$3)+$E$3</f>
+        <v>50.509997999999968</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="4"/>
+        <v>21.778253712088642</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>0.44830477237701399</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="5"/>
+        <v>38.315423182093369</v>
+      </c>
+      <c r="C133">
+        <v>0.47776256329295003</v>
+      </c>
+      <c r="D133">
+        <f>C133*($E$2-$E$3)+$E$3</f>
+        <v>40.679999999999971</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="4"/>
+        <v>-2.3645768179066025</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>0.725211322307587</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="5"/>
+        <v>60.542711391207362</v>
+      </c>
+      <c r="C134">
+        <v>0.56858106561806498</v>
+      </c>
+      <c r="D134">
+        <f>C134*($E$2-$E$3)+$E$3</f>
+        <v>47.970000999999947</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="4"/>
+        <v>12.572710391207416</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>6.4207591116428403E-2</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="5"/>
+        <v>7.4839432105005255</v>
+      </c>
+      <c r="C135">
+        <v>6.6650057721441502E-2</v>
+      </c>
+      <c r="D135">
+        <f>C135*($E$2-$E$3)+$E$3</f>
+        <v>7.6799999999999944</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="4"/>
+        <v>-0.19605678949946892</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>0.12414150685071899</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="5"/>
+        <v>12.294838506624201</v>
+      </c>
+      <c r="C136">
+        <v>9.5926251300018694E-2</v>
+      </c>
+      <c r="D136">
+        <f>C136*($E$2-$E$3)+$E$3</f>
+        <v>10.029999999999998</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="4"/>
+        <v>2.2648385066242032</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>0.57083088159561202</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="5"/>
+        <v>48.150593724018009</v>
+      </c>
+      <c r="C137">
+        <v>0.67783734092032699</v>
+      </c>
+      <c r="D137">
+        <f>C137*($E$2-$E$3)+$E$3</f>
+        <v>56.740001999999961</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="4"/>
+        <v>-8.5894082759819526</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>0.17572262883186299</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="5"/>
+        <v>16.435255064888384</v>
+      </c>
+      <c r="C138">
+        <v>8.32191374914448E-2</v>
+      </c>
+      <c r="D138">
+        <f>C138*($E$2-$E$3)+$E$3</f>
+        <v>9.009999999999998</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="4"/>
+        <v>7.4252550648883862</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>0.42461156845092801</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="5"/>
+        <v>36.413569750332854</v>
+      </c>
+      <c r="C139">
+        <v>0.40799804180884602</v>
+      </c>
+      <c r="D139">
+        <f>C139*($E$2-$E$3)+$E$3</f>
+        <v>35.080001999999986</v>
+      </c>
+      <c r="F139">
+        <f>B139-D139</f>
+        <v>1.3335677503328682</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>0.176542818546295</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="5"/>
+        <v>16.501091691625462</v>
+      </c>
+      <c r="C140">
+        <v>0.20655288916289699</v>
+      </c>
+      <c r="D140">
+        <f>C140*($E$2-$E$3)+$E$3</f>
+        <v>18.909999999999961</v>
+      </c>
+      <c r="F140">
+        <f t="shared" ref="F140:F154" si="6">B140-D140</f>
+        <v>-2.4089083083744995</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>0.33665537834167503</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="5"/>
+        <v>29.353326546175495</v>
+      </c>
+      <c r="C141">
+        <v>0.33212907268292102</v>
+      </c>
+      <c r="D141">
+        <f>C141*($E$2-$E$3)+$E$3</f>
+        <v>28.989999999999924</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="6"/>
+        <v>0.36332654617557125</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>0.297293961048126</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="5"/>
+        <v>26.193785658745149</v>
+      </c>
+      <c r="C142">
+        <v>0.28466426522148403</v>
+      </c>
+      <c r="D142">
+        <f>C142*($E$2-$E$3)+$E$3</f>
+        <v>25.179999999999993</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="6"/>
+        <v>1.0137856587451566</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>0.46791413426399198</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="5"/>
+        <v>39.889466621542368</v>
+      </c>
+      <c r="C143">
+        <v>0.43403511732988898</v>
+      </c>
+      <c r="D143">
+        <f>C143*($E$2-$E$3)+$E$3</f>
+        <v>37.16999799999995</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="6"/>
+        <v>2.7194686215424184</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>0.43664446473121599</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="5"/>
+        <v>37.379450310685776</v>
+      </c>
+      <c r="C144">
+        <v>0.28366762884434099</v>
+      </c>
+      <c r="D144">
+        <f>C144*($E$2-$E$3)+$E$3</f>
+        <v>25.099999999999994</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="6"/>
+        <v>12.279450310685782</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>0.213673755526543</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="5"/>
+        <v>19.481591928768097</v>
+      </c>
+      <c r="C145">
+        <v>0.19546530946718099</v>
+      </c>
+      <c r="D145">
+        <f>C145*($E$2-$E$3)+$E$3</f>
+        <v>18.02</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="6"/>
+        <v>1.4615919287680974</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>0.80729347467422496</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="5"/>
+        <v>67.131445597513093</v>
+      </c>
+      <c r="C146">
+        <v>0.74162205659952796</v>
+      </c>
+      <c r="D146">
+        <f>C146*($E$2-$E$3)+$E$3</f>
+        <v>61.860000999999997</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="6"/>
+        <v>5.2714445975130957</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>0.291935235261917</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="5"/>
+        <v>25.763640750603606</v>
+      </c>
+      <c r="C147">
+        <v>0.32764419652782301</v>
+      </c>
+      <c r="D147">
+        <f>C147*($E$2-$E$3)+$E$3</f>
+        <v>28.629998999999962</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="6"/>
+        <v>-2.866358249396356</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>0.45623427629470797</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="5"/>
+        <v>38.951924445707654</v>
+      </c>
+      <c r="C148">
+        <v>0.44325402873437197</v>
+      </c>
+      <c r="D148">
+        <f>C148*($E$2-$E$3)+$E$3</f>
+        <v>37.909999999999982</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="6"/>
+        <v>1.0419244457076715</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>0.13866372406482699</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="5"/>
+        <v>13.460536853356215</v>
+      </c>
+      <c r="C149">
+        <v>0.126199081255738</v>
+      </c>
+      <c r="D149">
+        <f>C149*($E$2-$E$3)+$E$3</f>
+        <v>12.459999999999928</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="6"/>
+        <v>1.0005368533562873</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>0.28917965292930597</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="5"/>
+        <v>25.542450162276083</v>
+      </c>
+      <c r="C150">
+        <v>0.27295378779005303</v>
+      </c>
+      <c r="D150">
+        <f>C150*($E$2-$E$3)+$E$3</f>
+        <v>24.239999999999981</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="6"/>
+        <v>1.3024501622761022</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>0.263882786035538</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="5"/>
+        <v>23.511870707307061</v>
+      </c>
+      <c r="C151">
+        <v>0.231593378138616</v>
+      </c>
+      <c r="D151">
+        <f>C151*($E$2-$E$3)+$E$3</f>
+        <v>20.919999999999952</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="6"/>
+        <v>2.591870707307109</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>0.86329138278961204</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="5"/>
+        <v>71.626397569939385</v>
+      </c>
+      <c r="C152">
+        <v>0.82434286344444596</v>
+      </c>
+      <c r="D152">
+        <f>C152*($E$2-$E$3)+$E$3</f>
+        <v>68.499999999999943</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="6"/>
+        <v>3.1263975699394422</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>0.67416226863861095</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="5"/>
+        <v>56.445003955296762</v>
+      </c>
+      <c r="C153">
+        <v>0.63012334944869397</v>
+      </c>
+      <c r="D153">
+        <f>C153*($E$2-$E$3)+$E$3</f>
+        <v>52.909999999999968</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="6"/>
+        <v>3.5350039552967942</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>0.66730868816375699</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="5"/>
+        <v>55.894867064287396</v>
+      </c>
+      <c r="C154">
+        <v>0.67870938529237201</v>
+      </c>
+      <c r="D154">
+        <f>C154*($E$2-$E$3)+$E$3</f>
+        <v>56.810000999999929</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="6"/>
+        <v>-0.91513393571253232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/RNA/Practice 1/Resultados.xlsx
+++ b/RNA/Practice 1/Resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xvenve/Gits/crispy-invention/RNA/Practice 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324457E9-A6BB-544A-8465-2A06F26ADC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DF3D17-A822-894C-A52A-E9B9DC6B394B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="5" xr2:uid="{381A8777-1A80-447C-9A6C-76478D5DFAEB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="20500" firstSheet="2" activeTab="5" xr2:uid="{381A8777-1A80-447C-9A6C-76478D5DFAEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos pruebas " sheetId="7" r:id="rId1"/>
@@ -262,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -291,6 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39575,10 +39576,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C075D4A0-DC5C-427A-8EBF-486DE5B8DC84}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -39588,10 +39589,11 @@
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="18" customWidth="1"/>
     <col min="5" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -39613,11 +39615,12 @@
       <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="20"/>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -39639,12 +39642,13 @@
       <c r="G2" s="16">
         <v>6.9937269999999999E-3</v>
       </c>
-      <c r="I2" s="17">
+      <c r="H2" s="16"/>
+      <c r="J2" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
         <v>7.7081836666666667E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.01</v>
       </c>
@@ -39666,17 +39670,18 @@
       <c r="G3" s="16">
         <v>4.2403349999999996E-3</v>
       </c>
-      <c r="I3" s="17">
+      <c r="H3" s="16"/>
+      <c r="J3" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
         <v>4.2411303333333332E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.05</v>
       </c>
       <c r="B4">
-        <v>100000</v>
+        <v>86335</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -39693,17 +39698,18 @@
       <c r="G4" s="16">
         <v>4.401978E-3</v>
       </c>
-      <c r="I4" s="17">
+      <c r="H4" s="16"/>
+      <c r="J4" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
         <v>3.6482440000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.75</v>
       </c>
       <c r="B5">
-        <v>100000</v>
+        <v>2987</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -39720,17 +39726,18 @@
       <c r="G5" s="16">
         <v>4.582732E-3</v>
       </c>
-      <c r="I5" s="17">
+      <c r="H5" s="16"/>
+      <c r="J5" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
         <v>3.6236383333333334E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.1</v>
       </c>
       <c r="B6">
-        <v>100000</v>
+        <v>22927</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -39747,17 +39754,18 @@
       <c r="G6" s="16">
         <v>4.1366839999999998E-3</v>
       </c>
-      <c r="I6" s="17">
+      <c r="H6" s="16"/>
+      <c r="J6" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
         <v>3.8088383333333333E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.75</v>
       </c>
       <c r="B7">
-        <v>100000</v>
+        <v>4184</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -39774,17 +39782,18 @@
       <c r="G7" s="16">
         <v>3.9561010000000001E-3</v>
       </c>
-      <c r="I7" s="17">
+      <c r="H7" s="16"/>
+      <c r="J7" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
         <v>3.7199306666666665E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.75</v>
       </c>
       <c r="B8">
-        <v>100000</v>
+        <v>55718</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -39801,17 +39810,17 @@
       <c r="G8">
         <v>5.0596189999999996E-3</v>
       </c>
-      <c r="I8" s="17">
+      <c r="J8" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
         <v>3.458001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.75</v>
       </c>
       <c r="B9">
-        <v>100000</v>
+        <v>3963</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -39828,17 +39837,17 @@
       <c r="G9">
         <v>4.3019410000000001E-3</v>
       </c>
-      <c r="I9" s="17">
+      <c r="J9" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
         <v>3.6491953333333336E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.75</v>
       </c>
       <c r="B10">
-        <v>100000</v>
+        <v>15323</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -39855,17 +39864,17 @@
       <c r="G10">
         <v>6.1128850999999998E-3</v>
       </c>
-      <c r="I10" s="17">
+      <c r="J10" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
         <v>3.6976111999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.75</v>
       </c>
       <c r="B11">
-        <v>100000</v>
+        <v>5860</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -39882,17 +39891,17 @@
       <c r="G11">
         <v>3.834652E-3</v>
       </c>
-      <c r="I11" s="17">
+      <c r="J11" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
         <v>3.1535390000000003E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="B12">
-        <v>1000000</v>
+        <v>938379</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -39909,13 +39918,13 @@
       <c r="G12">
         <v>5.3145650000000003E-3</v>
       </c>
-      <c r="I12" s="17">
+      <c r="J12" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
         <v>5.0613373333333331E-3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I12">
+  <conditionalFormatting sqref="J2:J12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -42546,7 +42555,7 @@
         <v>9.2313444432875105E-2</v>
       </c>
       <c r="D130">
-        <f t="shared" ref="D130:D161" si="8">C130*($E$2-$E$3)+$E$3</f>
+        <f t="shared" ref="D130:D154" si="8">C130*($E$2-$E$3)+$E$3</f>
         <v>9.7399999999999949</v>
       </c>
       <c r="F130">

--- a/RNA/Practice 1/Resultados.xlsx
+++ b/RNA/Practice 1/Resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xvenve/Gits/crispy-invention/RNA/Practice 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DF3D17-A822-894C-A52A-E9B9DC6B394B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480D3BB4-0A20-F343-AF9E-FCF895BE3A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="20500" firstSheet="2" activeTab="5" xr2:uid="{381A8777-1A80-447C-9A6C-76478D5DFAEB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" firstSheet="2" activeTab="5" xr2:uid="{381A8777-1A80-447C-9A6C-76478D5DFAEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos pruebas " sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>CICLOS</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>Diferencia</t>
+  </si>
+  <si>
+    <t>100, 100</t>
+  </si>
+  <si>
+    <t>0,001443807 </t>
+  </si>
+  <si>
+    <t>0,001624175 </t>
   </si>
 </sst>
 </file>
@@ -296,7 +305,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="21">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -15550,6 +15580,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Pred</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -16043,6 +16076,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Real</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -16649,6 +16685,1283 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="613393176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Comparación de valores</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ES">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparación Valores RSNNS'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pred</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparación Valores RSNNS'!$M$2:$M$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="153"/>
+                <c:pt idx="0">
+                  <c:v>13.820741260149759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4839432105005255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.435255064888384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.466732960799167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.294838506624201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.989628531461094</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.842090512198236</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.238356851313936</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.460536853356215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.711291326073203</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.605094444678441</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.114656682656019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.265706047751957</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.789755712835792</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.591237664376626</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.968688938301888</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.323573765177365</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.481591928768097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.399676814771816</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.297646908567534</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.501091691625462</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.560194929120556</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.560194929120556</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.85272621957283</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.646444023303282</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.511870707307061</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.322066658791556</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.576390703708761</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.271144698271264</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.368848703524414</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.587352746969898</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.33140704028748</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31.833657645696</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.787133826170916</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26.13853944465901</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25.325335937887409</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22.649669497369551</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25.542450162276083</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30.652270441099155</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23.057214986420732</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.205437252081552</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>37.379450310685776</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.892668714301848</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.967849851900077</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26.193785658745149</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23.410071651525342</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.11846525245754</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.719701580450796</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22.904150391197327</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22.496595333216675</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.073498460815692</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>34.79869090452501</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>24.298802718318086</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29.242929807297436</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>28.631300583514019</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25.763640750603606</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>29.353326546175495</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>31.270461558241855</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>35.073060818180963</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30.672822109290671</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>35.455121855917604</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>29.202149422282844</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>28.06413578257721</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>33.747079913142016</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>27.068945591368411</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27.239717490509122</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>35.145004814129194</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32.182392494446916</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>29.976565273594538</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>33.037483989815122</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>32.697619538649313</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>38.313822778645594</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>32.550121668124028</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>35.056520923654638</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>34.444413253399496</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>29.217215701676423</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>35.708715231540381</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>41.783959154335996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>36.413569750332854</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>50.264260193260881</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>35.310614275840329</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>34.88876802175028</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>37.029423656461326</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41.290915280793548</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>39.889466621542368</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>39.166122538851432</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>38.905835697089678</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>36.704115939196711</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>38.951924445707654</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>34.795655161662125</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40.867284421364097</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>34.731045750124949</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>48.788736059030199</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44.327366244451873</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>39.99295937783392</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>33.025960606544402</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>39.068945275986238</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>39.585145958758545</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43.625777122828751</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>38.449991036721244</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>40.868614502555353</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>38.315423182093369</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41.664644173225632</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>37.162151884405482</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>36.497094543128298</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41.448857637795875</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>29.859549227780612</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>37.166118205655813</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>46.47557654895089</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>37.921109130216777</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>40.923812871994386</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44.441413529908885</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>46.46909359925953</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42.600030947705399</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>56.861716478745578</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>46.43603773253033</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>48.336886426700353</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>48.505184757582413</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43.191204192591677</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>48.967115257070816</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>46.43812375914689</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>60.542711391207362</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>46.51142175860997</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>47.358219384391425</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>56.687289248561171</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>72.288251712088609</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>54.123739561987051</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>54.054656675939562</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>50.169900980113972</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>48.236604046233907</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>50.474714442763648</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>53.387003762553427</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>56.445003955296762</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>50.221783715504131</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>52.225919433982838</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>57.272635015422203</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>48.150593724018009</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>55.894867064287396</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>42.909270040218196</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>56.726995521246828</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>62.536971974510308</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>54.590421034939268</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>67.131445597513093</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>65.26400682046129</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>63.085262062138895</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>71.626397569939385</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>57.660793853440531</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>64.297277017621013</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>67.463750594426187</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>72.781903212650064</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>62.792404976816805</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>75.592450890234687</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>75.592450890234687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4251-F540-B002-0F0C221CE3DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparación Valores RSNNS'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparación Valores RSNNS'!$N$2:$N$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="153"/>
+                <c:pt idx="0">
+                  <c:v>7.3199999999999967</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6799999999999944</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7399999999999949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.789999999999944</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.179999999999982</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.179999999999982</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.459999999999928</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.549999999999931</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.519999999999973</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.619999999999987</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.339999999999939</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.339999999999939</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.280000999999949</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.290000999999958</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.909999999999961</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.690000999999924</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.690000999999924</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.729999999999933</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.769999999999968</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.919999999999952</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.15999999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.64999999999992</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21.919999999999938</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21.950000999999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23.34999999999993</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23.399999999999977</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.519999999999939</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.519999999999939</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.069999999999979</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.239999999999981</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24.339999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24.389998999999939</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24.659999999999975</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.179999999999993</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25.179999999999993</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.179999999999993</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.569999999999965</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.969999000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.259999999999977</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26.919999999999959</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26.919999999999959</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>26.940000999999924</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27.229999999999933</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27.679999999999964</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.829999999999941</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27.870000999999924</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>28.629998999999962</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28.989999999999924</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29.649999999999991</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29.719998999999952</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30.450000999999972</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30.569999999999986</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31.030000999999963</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31.71999899999993</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31.870000999999959</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>31.879998999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>32.110000999999947</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32.330001999999936</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>32.630000999999957</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>32.999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>33.400001999999994</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>33.54000099999994</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>33.799998999999978</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>34.200000999999929</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>34.490001999999983</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>34.569999999999936</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>34.669997999999985</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>34.740001999999976</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>35.080001999999986</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>35.959998999999947</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>36.349997999999978</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>36.450000999999979</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>36.939999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>36.970000999999989</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>37.16999799999995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>37.269999999999932</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>37.360000999999968</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>37.429999999999929</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>37.909999999999982</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>37.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>38.459998999999996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>38.560000999999978</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>38.799998999999922</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>39.060000999999971</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>39.299998999999993</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>39.299998999999993</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>39.380000999999957</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>39.779998999999975</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>40.150001999999994</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>40.29000099999994</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>40.560000999999957</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>40.679999999999971</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41.540000999999926</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42.419997999999971</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42.63999899999996</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42.700000999999986</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43.060000999999929</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43.249999999999929</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43.380000999999993</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43.389998999999953</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43.580001999999965</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43.700000999999979</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43.79999899999995</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>43.889998999999946</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44.029998999999926</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45.299998999999929</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>46.200000999999951</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>46.229999999999954</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>46.799998999999985</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>47.029998999999968</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>47.819999999999936</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>47.970000999999947</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>48.150001999999979</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>49.200000999999993</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>49.970001000000003</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>50.509997999999968</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>50.529998999999926</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>51.019999999999939</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>51.040000999999982</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>51.040000999999982</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>51.330001999999951</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>52.439998999999986</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>52.909999999999968</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>52.959998999999989</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>53.099997999999943</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>54.319999999999951</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>56.740001999999961</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>56.810000999999929</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>56.830001999999972</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>58.610000999999961</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>60.290000999999954</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>60.950000999999936</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>61.860000999999997</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>65.199996999999968</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>66.599997999999943</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>68.499999999999943</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>69.839995999999928</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>72.099997999999957</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>76.239997999999972</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>77.300002999999961</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>78.800002999999947</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>79.300002999999947</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>79.300002999999947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4251-F540-B002-0F0C221CE3DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="852512911"/>
+        <c:axId val="852514559"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="852512911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="852514559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="852514559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="852512911"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16929,6 +18242,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -20064,6 +21417,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -20306,34 +22175,84 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133684</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>112294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>655052</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>147051</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64824475-1513-5343-B04A-270C3C4E1F2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{48967E76-2593-46E7-8686-BDE6ECCEA8AF}" name="Tabla13" displayName="Tabla13" ref="A1:E8" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{48967E76-2593-46E7-8686-BDE6ECCEA8AF}" name="Tabla13" displayName="Tabla13" ref="A1:E8" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A1:E8" xr:uid="{6B66251C-34FA-4DCF-964B-0182CE133441}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DC517106-6115-4933-AE78-16DA2A84443F}" name="F. APRENDIZAJE" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{4A4C55AF-7F4F-409A-B5B0-73928A77891F}" name="CICLOS" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{CC51D367-EAD0-41A3-9BF5-4D2F38919A2B}" name="E. ENTREN." dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{82466D97-14E9-40B0-84FA-1AEE11AC9D6A}" name="E. VAL." dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{743F5CF6-7A42-40A5-BB25-E985BB1CD2F4}" name="E. TEST" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{DC517106-6115-4933-AE78-16DA2A84443F}" name="F. APRENDIZAJE" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{4A4C55AF-7F4F-409A-B5B0-73928A77891F}" name="CICLOS" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{CC51D367-EAD0-41A3-9BF5-4D2F38919A2B}" name="E. ENTREN." dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{82466D97-14E9-40B0-84FA-1AEE11AC9D6A}" name="E. VAL." dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{743F5CF6-7A42-40A5-BB25-E985BB1CD2F4}" name="E. TEST" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{62643F95-C31C-4A81-BC76-ABDF70F0C185}" name="Tabla132" displayName="Tabla132" ref="A1:G12" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
-  <autoFilter ref="A1:G12" xr:uid="{62643F95-C31C-4A81-BC76-ABDF70F0C185}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{62643F95-C31C-4A81-BC76-ABDF70F0C185}" name="Tabla132" displayName="Tabla132" ref="A1:G14" totalsRowShown="0" headerRowDxfId="11" dataDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:G14" xr:uid="{62643F95-C31C-4A81-BC76-ABDF70F0C185}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AB4CEA21-1ADA-4608-9CE6-507D505FED12}" name="F. APRENDIZAJE"/>
-    <tableColumn id="2" xr3:uid="{7A18C56E-4A52-4646-AB97-73144BC82BF1}" name="CICLOS"/>
-    <tableColumn id="8" xr3:uid="{B91D77E9-91D5-4EC0-A5D6-F793986BC17D}" name="CAPAS"/>
-    <tableColumn id="7" xr3:uid="{0CA9B597-AAA2-421E-A8F3-43E23BD9632F}" name="NEURONAS" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{AF9C2247-F332-44BE-BE76-034A9F051311}" name="E. ENTREN."/>
-    <tableColumn id="4" xr3:uid="{BFB341A2-6982-421E-B47A-48F9E5B614CD}" name="E. VAL."/>
-    <tableColumn id="5" xr3:uid="{B875550A-7584-4FC4-BE04-7B2B8CC49521}" name="E. TEST"/>
+    <tableColumn id="1" xr3:uid="{AB4CEA21-1ADA-4608-9CE6-507D505FED12}" name="F. APRENDIZAJE" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7A18C56E-4A52-4646-AB97-73144BC82BF1}" name="CICLOS" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{B91D77E9-91D5-4EC0-A5D6-F793986BC17D}" name="CAPAS" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{0CA9B597-AAA2-421E-A8F3-43E23BD9632F}" name="NEURONAS" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{AF9C2247-F332-44BE-BE76-034A9F051311}" name="E. ENTREN." dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{BFB341A2-6982-421E-B47A-48F9E5B614CD}" name="E. VAL." dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{B875550A-7584-4FC4-BE04-7B2B8CC49521}" name="E. TEST" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{083ED0DC-D78E-1E4D-AE08-E7FE7C5F003E}" name="Table3" displayName="Table3" ref="M1:N154" totalsRowShown="0">
+  <autoFilter ref="M1:N154" xr:uid="{083ED0DC-D78E-1E4D-AE08-E7FE7C5F003E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:N154">
+    <sortCondition ref="N1:N154"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4E8D18C9-2C7D-CB48-A66A-C337777B9867}" name="Pred"/>
+    <tableColumn id="2" xr3:uid="{FA76FADF-F840-2545-B313-B3EF39086898}" name="Real"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -39576,10 +41495,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C075D4A0-DC5C-427A-8EBF-486DE5B8DC84}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -39621,25 +41540,25 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="18">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="18">
         <v>100000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="18">
         <v>1</v>
       </c>
       <c r="D2" s="18">
         <v>60</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="18">
         <v>8.3389840000000007E-3</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="18">
         <v>7.7918400000000004E-3</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="18">
         <v>6.9937269999999999E-3</v>
       </c>
       <c r="H2" s="16"/>
@@ -39649,282 +41568,342 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0.01</v>
-      </c>
-      <c r="B3">
-        <v>100000</v>
-      </c>
-      <c r="C3">
+      <c r="A3" s="18">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B3" s="18">
+        <v>938379</v>
+      </c>
+      <c r="C3" s="18">
         <v>1</v>
       </c>
       <c r="D3" s="18">
         <v>60</v>
       </c>
-      <c r="E3" s="16">
-        <v>3.0544209999999999E-3</v>
-      </c>
-      <c r="F3" s="16">
-        <v>5.4286350000000002E-3</v>
-      </c>
-      <c r="G3" s="16">
-        <v>4.2403349999999996E-3</v>
+      <c r="E3" s="18">
+        <v>4.0150059999999998E-3</v>
+      </c>
+      <c r="F3" s="18">
+        <v>5.8544410000000002E-3</v>
+      </c>
+      <c r="G3" s="18">
+        <v>5.3145650000000003E-3</v>
       </c>
       <c r="H3" s="16"/>
       <c r="J3" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
-        <v>4.2411303333333332E-3</v>
+        <v>5.0613373333333331E-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0.05</v>
-      </c>
-      <c r="B4">
-        <v>86335</v>
-      </c>
-      <c r="C4">
+      <c r="A4" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="B4" s="18">
+        <v>100000</v>
+      </c>
+      <c r="C4" s="18">
         <v>1</v>
       </c>
       <c r="D4" s="18">
         <v>60</v>
       </c>
-      <c r="E4" s="16">
-        <v>1.9410510000000001E-3</v>
-      </c>
-      <c r="F4" s="16">
-        <v>4.6017030000000004E-3</v>
-      </c>
-      <c r="G4" s="16">
-        <v>4.401978E-3</v>
+      <c r="E4" s="18">
+        <v>3.0544209999999999E-3</v>
+      </c>
+      <c r="F4" s="18">
+        <v>5.4286350000000002E-3</v>
+      </c>
+      <c r="G4" s="18">
+        <v>4.2403349999999996E-3</v>
       </c>
       <c r="H4" s="16"/>
       <c r="J4" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
-        <v>3.6482440000000001E-3</v>
+        <v>4.2411303333333332E-3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0.75</v>
-      </c>
-      <c r="B5">
-        <v>2987</v>
-      </c>
-      <c r="C5">
+      <c r="A5" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="B5" s="18">
+        <v>86335</v>
+      </c>
+      <c r="C5" s="18">
         <v>1</v>
       </c>
       <c r="D5" s="18">
         <v>60</v>
       </c>
-      <c r="E5" s="16">
-        <v>1.782846E-3</v>
-      </c>
-      <c r="F5" s="16">
-        <v>4.5053369999999999E-3</v>
-      </c>
-      <c r="G5" s="16">
-        <v>4.582732E-3</v>
+      <c r="E5" s="18">
+        <v>1.9410510000000001E-3</v>
+      </c>
+      <c r="F5" s="18">
+        <v>4.6017030000000004E-3</v>
+      </c>
+      <c r="G5" s="18">
+        <v>4.401978E-3</v>
       </c>
       <c r="H5" s="16"/>
       <c r="J5" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
-        <v>3.6236383333333334E-3</v>
+        <v>3.6482440000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0.1</v>
-      </c>
-      <c r="B6">
-        <v>22927</v>
-      </c>
-      <c r="C6">
+      <c r="A6" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="B6" s="18">
+        <v>2987</v>
+      </c>
+      <c r="C6" s="18">
         <v>1</v>
       </c>
       <c r="D6" s="18">
         <v>60</v>
       </c>
-      <c r="E6" s="16">
-        <v>2.524447E-3</v>
-      </c>
-      <c r="F6" s="16">
-        <v>4.7653840000000001E-3</v>
-      </c>
-      <c r="G6" s="16">
-        <v>4.1366839999999998E-3</v>
+      <c r="E6" s="18">
+        <v>1.782846E-3</v>
+      </c>
+      <c r="F6" s="18">
+        <v>4.5053369999999999E-3</v>
+      </c>
+      <c r="G6" s="18">
+        <v>4.582732E-3</v>
       </c>
       <c r="H6" s="16"/>
       <c r="J6" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
-        <v>3.8088383333333333E-3</v>
+        <v>3.6236383333333334E-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0.75</v>
-      </c>
-      <c r="B7">
-        <v>4184</v>
-      </c>
-      <c r="C7">
+      <c r="A7" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="18">
+        <v>22927</v>
+      </c>
+      <c r="C7" s="18">
         <v>1</v>
       </c>
       <c r="D7" s="18">
-        <v>40</v>
-      </c>
-      <c r="E7" s="16">
-        <v>2.9007880000000001E-3</v>
-      </c>
-      <c r="F7" s="16">
-        <v>4.3029030000000003E-3</v>
-      </c>
-      <c r="G7" s="16">
-        <v>3.9561010000000001E-3</v>
+        <v>60</v>
+      </c>
+      <c r="E7" s="18">
+        <v>2.524447E-3</v>
+      </c>
+      <c r="F7" s="18">
+        <v>4.7653840000000001E-3</v>
+      </c>
+      <c r="G7" s="18">
+        <v>4.1366839999999998E-3</v>
       </c>
       <c r="H7" s="16"/>
       <c r="J7" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
-        <v>3.7199306666666665E-3</v>
+        <v>3.8088383333333333E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="18">
         <v>0.75</v>
       </c>
-      <c r="B8">
-        <v>55718</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="18">
+        <v>4184</v>
+      </c>
+      <c r="C8" s="18">
         <v>1</v>
       </c>
       <c r="D8" s="18">
-        <v>80</v>
-      </c>
-      <c r="E8">
-        <v>1.177719E-3</v>
-      </c>
-      <c r="F8">
-        <v>4.1366650000000003E-3</v>
-      </c>
-      <c r="G8">
-        <v>5.0596189999999996E-3</v>
+        <v>40</v>
+      </c>
+      <c r="E8" s="18">
+        <v>2.9007880000000001E-3</v>
+      </c>
+      <c r="F8" s="18">
+        <v>4.3029030000000003E-3</v>
+      </c>
+      <c r="G8" s="18">
+        <v>3.9561010000000001E-3</v>
       </c>
       <c r="J8" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
-        <v>3.458001E-3</v>
+        <v>3.7199306666666665E-3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="18">
         <v>0.75</v>
       </c>
-      <c r="B9">
-        <v>3963</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>1.693033E-3</v>
-      </c>
-      <c r="F9">
-        <v>4.9526120000000003E-3</v>
-      </c>
-      <c r="G9">
-        <v>4.3019410000000001E-3</v>
+      <c r="B9" s="18">
+        <v>55718</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
+        <v>80</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1.177719E-3</v>
+      </c>
+      <c r="F9" s="18">
+        <v>4.1366650000000003E-3</v>
+      </c>
+      <c r="G9" s="18">
+        <v>5.0596189999999996E-3</v>
       </c>
       <c r="J9" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
-        <v>3.6491953333333336E-3</v>
+        <v>3.458001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="18">
         <v>0.75</v>
       </c>
-      <c r="B10">
-        <v>15323</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>9.3562310000000004E-4</v>
-      </c>
-      <c r="F10">
-        <v>4.0443253999999998E-3</v>
-      </c>
-      <c r="G10">
-        <v>6.1128850999999998E-3</v>
+      <c r="B10" s="18">
+        <v>21969</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18">
+        <v>100</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="18">
+        <v>3.7305989999999998E-3</v>
+      </c>
+      <c r="G10" s="18">
+        <v>4.0800710000000002E-3</v>
       </c>
       <c r="J10" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
-        <v>3.6976111999999996E-3</v>
+        <v>3.9053350000000002E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="18">
         <v>0.75</v>
       </c>
-      <c r="B11">
-        <v>5860</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="18">
+        <v>3963</v>
+      </c>
+      <c r="C11" s="18">
         <v>2</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>1.2945680000000001E-3</v>
-      </c>
-      <c r="F11">
-        <v>4.3313969999999999E-3</v>
-      </c>
-      <c r="G11">
-        <v>3.834652E-3</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1.693033E-3</v>
+      </c>
+      <c r="F11" s="18">
+        <v>4.9526120000000003E-3</v>
+      </c>
+      <c r="G11" s="18">
+        <v>4.3019410000000001E-3</v>
       </c>
       <c r="J11" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
-        <v>3.1535390000000003E-3</v>
+        <v>3.6491953333333336E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="B12">
-        <v>938379</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="18">
-        <v>60</v>
-      </c>
-      <c r="E12">
-        <v>4.0150059999999998E-3</v>
-      </c>
-      <c r="F12">
-        <v>5.8544410000000002E-3</v>
-      </c>
-      <c r="G12">
-        <v>5.3145650000000003E-3</v>
+      <c r="A12" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="B12" s="18">
+        <v>15323</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="18">
+        <v>9.3562310000000004E-4</v>
+      </c>
+      <c r="F12" s="18">
+        <v>4.0443253999999998E-3</v>
+      </c>
+      <c r="G12" s="18">
+        <v>6.1128850999999998E-3</v>
       </c>
       <c r="J12" s="17">
         <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
-        <v>5.0613373333333331E-3</v>
+        <v>3.6976111999999996E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="18">
+        <v>5860</v>
+      </c>
+      <c r="C13" s="18">
+        <v>2</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1.2945680000000001E-3</v>
+      </c>
+      <c r="F13" s="18">
+        <v>4.3313969999999999E-3</v>
+      </c>
+      <c r="G13" s="18">
+        <v>3.834652E-3</v>
+      </c>
+      <c r="J13" s="17">
+        <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
+        <v>3.1535390000000003E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="B14" s="18">
+        <v>5953</v>
+      </c>
+      <c r="C14" s="18">
+        <v>2</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="18">
+        <v>4.5442920000000001E-3</v>
+      </c>
+      <c r="G14" s="18">
+        <v>5.8527500000000003E-3</v>
+      </c>
+      <c r="J14" s="17">
+        <f>AVERAGE(Tabla132[[#This Row],[E. ENTREN.]:[E. TEST]])</f>
+        <v>5.1985210000000002E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f>MIN(Tabla132[E. TEST])</f>
+        <v>3.834652E-3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J12">
+  <conditionalFormatting sqref="J2:J14">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -39937,6 +41916,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -39947,8 +41927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAD257E-9228-4FA8-858F-B149F1B7B05B}">
   <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -39973,6 +41953,12 @@
       <c r="F1" t="s">
         <v>18</v>
       </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -39997,6 +41983,12 @@
         <v>0.12272621957289687</v>
       </c>
       <c r="I2" s="3"/>
+      <c r="M2">
+        <v>13.820741260149759</v>
+      </c>
+      <c r="N2">
+        <v>7.3199999999999967</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -40020,6 +42012,12 @@
         <f t="shared" si="1"/>
         <v>-2.6534357264054194</v>
       </c>
+      <c r="M3">
+        <v>7.4839432105005255</v>
+      </c>
+      <c r="N3">
+        <v>7.6799999999999944</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -40040,6 +42038,12 @@
         <f t="shared" si="1"/>
         <v>-1.3678505777171424</v>
       </c>
+      <c r="M4">
+        <v>16.435255064888384</v>
+      </c>
+      <c r="N4">
+        <v>9.009999999999998</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -40060,6 +42064,12 @@
         <f t="shared" si="1"/>
         <v>-4.0158496088026325</v>
       </c>
+      <c r="M5">
+        <v>12.466732960799167</v>
+      </c>
+      <c r="N5">
+        <v>9.7399999999999949</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -40081,6 +42091,12 @@
         <v>12.831717478745652</v>
       </c>
       <c r="I6" s="4"/>
+      <c r="M6">
+        <v>12.294838506624201</v>
+      </c>
+      <c r="N6">
+        <v>10.029999999999998</v>
+      </c>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -40102,6 +42118,12 @@
         <f t="shared" si="1"/>
         <v>1.8053359378874703</v>
       </c>
+      <c r="M7">
+        <v>11.989628531461094</v>
+      </c>
+      <c r="N7">
+        <v>10.789999999999944</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -40122,6 +42144,12 @@
         <f t="shared" si="1"/>
         <v>0.74141252990890649</v>
       </c>
+      <c r="M8">
+        <v>14.842090512198236</v>
+      </c>
+      <c r="N8">
+        <v>12.179999999999982</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -40142,6 +42170,12 @@
         <f t="shared" si="1"/>
         <v>-0.87407856601710421</v>
       </c>
+      <c r="M9">
+        <v>14.238356851313936</v>
+      </c>
+      <c r="N9">
+        <v>12.179999999999982</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -40162,6 +42196,12 @@
         <f t="shared" si="1"/>
         <v>0.12464317322570651</v>
       </c>
+      <c r="M10">
+        <v>13.460536853356215</v>
+      </c>
+      <c r="N10">
+        <v>12.459999999999928</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -40182,6 +42222,12 @@
         <f t="shared" si="1"/>
         <v>2.0583568513139543</v>
       </c>
+      <c r="M11">
+        <v>10.711291326073203</v>
+      </c>
+      <c r="N11">
+        <v>12.549999999999931</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -40202,6 +42248,12 @@
         <f t="shared" si="1"/>
         <v>6.400982046132242E-2</v>
       </c>
+      <c r="M12">
+        <v>14.605094444678441</v>
+      </c>
+      <c r="N12">
+        <v>13.199999999999989</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -40222,6 +42274,12 @@
         <f t="shared" si="1"/>
         <v>6.5007412601497627</v>
       </c>
+      <c r="M13">
+        <v>15.114656682656019</v>
+      </c>
+      <c r="N13">
+        <v>13.519999999999973</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -40242,6 +42300,12 @@
         <f t="shared" si="1"/>
         <v>0.64570604775197005</v>
       </c>
+      <c r="M14">
+        <v>14.265706047751957</v>
+      </c>
+      <c r="N14">
+        <v>13.619999999999987</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -40262,6 +42326,12 @@
         <f t="shared" si="1"/>
         <v>4.8235737651773647</v>
       </c>
+      <c r="M15">
+        <v>19.789755712835792</v>
+      </c>
+      <c r="N15">
+        <v>15.339999999999939</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -40282,8 +42352,14 @@
         <f t="shared" si="1"/>
         <v>0.54543725208157667</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <v>13.591237664376626</v>
+      </c>
+      <c r="N16">
+        <v>15.339999999999939</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.16282144188880901</v>
       </c>
@@ -40302,8 +42378,14 @@
         <f t="shared" si="1"/>
         <v>-2.8803241852281332</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>18.968688938301888</v>
+      </c>
+      <c r="N17">
+        <v>15.569999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.64524406194686901</v>
       </c>
@@ -40322,8 +42404,14 @@
         <f t="shared" si="1"/>
         <v>3.5937405619871257</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>21.323573765177365</v>
+      </c>
+      <c r="N18">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.120339214801788</v>
       </c>
@@ -40342,8 +42430,14 @@
         <f t="shared" si="1"/>
         <v>1.1996285314611494</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <v>19.481591928768097</v>
+      </c>
+      <c r="N19">
+        <v>18.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.28579974174499501</v>
       </c>
@@ -40362,8 +42456,14 @@
         <f t="shared" si="1"/>
         <v>3.3511446982713267</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>15.399676814771816</v>
+      </c>
+      <c r="N20">
+        <v>18.280000999999949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.59598731994628895</v>
       </c>
@@ -40382,8 +42482,14 @@
         <f t="shared" si="1"/>
         <v>-0.87010001988601005</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>15.297646908567534</v>
+      </c>
+      <c r="N21">
+        <v>18.290000999999958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.45566010475158703</v>
       </c>
@@ -40402,8 +42508,14 @@
         <f t="shared" si="1"/>
         <v>1.5458346970897097</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>16.501091691625462</v>
+      </c>
+      <c r="N22">
+        <v>18.909999999999961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.20728403329849199</v>
       </c>
@@ -40422,8 +42534,14 @@
         <f t="shared" si="1"/>
         <v>3.3986889383018912</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>18.560194929120556</v>
+      </c>
+      <c r="N23">
+        <v>19.690000999999924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.251234531402588</v>
       </c>
@@ -40442,8 +42560,14 @@
         <f t="shared" si="1"/>
         <v>-4.4234046667832843</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>18.560194929120556</v>
+      </c>
+      <c r="N24">
+        <v>19.690000999999924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.49151563644409202</v>
       </c>
@@ -40462,8 +42586,14 @@
         <f t="shared" si="1"/>
         <v>7.0439571543360202</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>20.85272621957283</v>
+      </c>
+      <c r="N25">
+        <v>20.729999999999933</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.314518392086029</v>
       </c>
@@ -40482,8 +42612,14 @@
         <f t="shared" si="1"/>
         <v>5.9263907037088401</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>20.646444023303282</v>
+      </c>
+      <c r="N26">
+        <v>20.769999999999968</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.42823117971420299</v>
       </c>
@@ -40502,8 +42638,14 @@
         <f t="shared" si="1"/>
         <v>-0.72588406080321732</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>23.511870707307061</v>
+      </c>
+      <c r="N27">
+        <v>20.919999999999952</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.25821870565414401</v>
       </c>
@@ -40522,8 +42664,14 @@
         <f t="shared" si="1"/>
         <v>-1.3327840135792073</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>21.322066658791556</v>
+      </c>
+      <c r="N28">
+        <v>21.15999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.43228384852409402</v>
       </c>
@@ -40542,8 +42690,14 @@
         <f t="shared" si="1"/>
         <v>8.9424656461325469E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>27.576390703708761</v>
+      </c>
+      <c r="N29">
+        <v>21.64999999999992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.202533364295959</v>
       </c>
@@ -40562,8 +42716,14 @@
         <f t="shared" si="1"/>
         <v>-3.7326472530301018</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>25.271144698271264</v>
+      </c>
+      <c r="N30">
+        <v>21.919999999999938</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.36755523085594199</v>
       </c>
@@ -40582,8 +42742,14 @@
         <f t="shared" si="1"/>
         <v>8.4836576456960699</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>23.368848703524414</v>
+      </c>
+      <c r="N31">
+        <v>21.950000999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.912700295448303</v>
       </c>
@@ -40602,8 +42768,14 @@
         <f t="shared" si="1"/>
         <v>-3.7075521097652597</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>18.587352746969898</v>
+      </c>
+      <c r="N32">
+        <v>22.32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.58100306987762496</v>
       </c>
@@ -40622,8 +42794,14 @@
         <f t="shared" si="1"/>
         <v>1.9371162570708478</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>32.33140704028748</v>
+      </c>
+      <c r="N33">
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.371899753808975</v>
       </c>
@@ -40642,8 +42820,14 @@
         <f t="shared" si="1"/>
         <v>-0.14760950555302088</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>31.833657645696</v>
+      </c>
+      <c r="N34">
+        <v>23.34999999999993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.59978467226028398</v>
       </c>
@@ -40662,8 +42846,14 @@
         <f t="shared" si="1"/>
         <v>-0.85528755723630212</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>19.787133826170916</v>
+      </c>
+      <c r="N35">
+        <v>23.399999999999977</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.33495971560478199</v>
       </c>
@@ -40682,8 +42872,14 @@
         <f t="shared" si="1"/>
         <v>-5.3527842983235132</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>26.13853944465901</v>
+      </c>
+      <c r="N36">
+        <v>23.519999999999939</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.75688630342483498</v>
       </c>
@@ -40702,8 +42898,14 @@
         <f t="shared" si="1"/>
         <v>-3.5147359378610474</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>25.325335937887409</v>
+      </c>
+      <c r="N37">
+        <v>23.519999999999939</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.48079997301101701</v>
       </c>
@@ -40722,8 +42924,14 @@
         <f t="shared" si="1"/>
         <v>-2.6561891280055789</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <v>22.649669497369551</v>
+      </c>
+      <c r="N38">
+        <v>24.069999999999979</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.59663367271423295</v>
       </c>
@@ -40742,8 +42950,14 @@
         <f t="shared" si="1"/>
         <v>-2.7382152844958583</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <v>25.542450162276083</v>
+      </c>
+      <c r="N39">
+        <v>24.239999999999981</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.104413747787476</v>
       </c>
@@ -40762,8 +42976,14 @@
         <f t="shared" si="1"/>
         <v>-1.8387086739267282</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <v>30.652270441099155</v>
+      </c>
+      <c r="N40">
+        <v>24.339999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.67718064785003695</v>
       </c>
@@ -40782,8 +43002,14 @@
         <f t="shared" si="1"/>
         <v>6.717288248561168</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <v>23.057214986420732</v>
+      </c>
+      <c r="N41">
+        <v>24.389998999999939</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.40365076065063499</v>
       </c>
@@ -40802,8 +43028,14 @@
         <f t="shared" si="1"/>
         <v>-3.8289552498750297</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>25.205437252081552</v>
+      </c>
+      <c r="N42">
+        <v>24.659999999999975</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.26261457800865201</v>
       </c>
@@ -40822,8 +43054,14 @@
         <f t="shared" si="1"/>
         <v>-2.1599283484746223</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <v>37.379450310685776</v>
+      </c>
+      <c r="N43">
+        <v>25.099999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.335280060768127</v>
       </c>
@@ -40842,8 +43080,14 @@
         <f t="shared" si="1"/>
         <v>1.4129298072974947</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>28.892668714301848</v>
+      </c>
+      <c r="N44">
+        <v>25.179999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.228185430169106</v>
       </c>
@@ -40862,8 +43106,14 @@
         <f t="shared" si="1"/>
         <v>-0.12355597669668583</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>26.967849851900077</v>
+      </c>
+      <c r="N45">
+        <v>25.179999999999993</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.21751284599304199</v>
       </c>
@@ -40882,8 +43132,14 @@
         <f t="shared" si="1"/>
         <v>4.4497557128358523</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <v>26.193785658745149</v>
+      </c>
+      <c r="N46">
+        <v>25.179999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.75323790311813399</v>
       </c>
@@ -40902,8 +43158,14 @@
         <f t="shared" si="1"/>
         <v>-16.007598023183142</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <v>23.410071651525342</v>
+      </c>
+      <c r="N47">
+        <v>25.569999999999965</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.14029198884964</v>
       </c>
@@ -40922,8 +43184,14 @@
         <f t="shared" si="1"/>
         <v>-1.7487623356233133</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>25.11846525245754</v>
+      </c>
+      <c r="N48">
+        <v>25.969999000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.15292257070541401</v>
       </c>
@@ -40942,8 +43210,14 @@
         <f t="shared" si="1"/>
         <v>1.4050944446784523</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>19.719701580450796</v>
+      </c>
+      <c r="N49">
+        <v>26.259999999999977</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.29660570621490501</v>
       </c>
@@ -40962,8 +43236,14 @@
         <f t="shared" si="1"/>
         <v>2.6185394446590706</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <v>22.904150391197327</v>
+      </c>
+      <c r="N50">
+        <v>26.919999999999959</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.41087099909782399</v>
       </c>
@@ -40982,8 +43262,14 @@
         <f t="shared" si="1"/>
         <v>-1.0393837241596486</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M51">
+        <v>22.496595333216675</v>
+      </c>
+      <c r="N51">
+        <v>26.919999999999959</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.327660411596298</v>
       </c>
@@ -41002,8 +43288,14 @@
         <f t="shared" si="1"/>
         <v>0.76129958351409499</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M52">
+        <v>25.073498460815692</v>
+      </c>
+      <c r="N52">
+        <v>26.940000999999924</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.39139255881309498</v>
       </c>
@@ -41022,8 +43314,14 @@
         <f t="shared" si="1"/>
         <v>2.0270809131420862</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M53">
+        <v>34.79869090452501</v>
+      </c>
+      <c r="N53">
+        <v>27.229999999999933</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.54947102069854703</v>
       </c>
@@ -41042,8 +43340,14 @@
         <f t="shared" si="1"/>
         <v>1.1360387325304018</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M54">
+        <v>24.298802718318086</v>
+      </c>
+      <c r="N54">
+        <v>27.679999999999964</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.51446092128753695</v>
       </c>
@@ -41062,8 +43366,14 @@
         <f t="shared" si="1"/>
         <v>3.4757751228287574</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M55">
+        <v>29.242929807297436</v>
+      </c>
+      <c r="N55">
+        <v>27.829999999999941</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.87768661975860596</v>
       </c>
@@ -41082,8 +43392,14 @@
         <f t="shared" si="1"/>
         <v>-4.5180997873498967</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M56">
+        <v>28.631300583514019</v>
+      </c>
+      <c r="N56">
+        <v>27.870000999999924</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.44339242577552801</v>
       </c>
@@ -41102,8 +43418,14 @@
         <f t="shared" si="1"/>
         <v>-5.468889869783176</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <v>25.763640750603606</v>
+      </c>
+      <c r="N57">
+        <v>28.629998999999962</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.43398678302764898</v>
       </c>
@@ -41122,8 +43444,14 @@
         <f t="shared" si="1"/>
         <v>-6.0838817943441157</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <v>29.353326546175495</v>
+      </c>
+      <c r="N58">
+        <v>28.989999999999924</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.57190239429473899</v>
       </c>
@@ -41142,8 +43470,14 @@
         <f t="shared" si="1"/>
         <v>-2.8033969537660752</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M59">
+        <v>31.270461558241855</v>
+      </c>
+      <c r="N59">
+        <v>29.22999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.23660230636596699</v>
       </c>
@@ -41162,8 +43496,14 @@
         <f t="shared" si="1"/>
         <v>0.16206665879161619</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M60">
+        <v>35.073060818180963</v>
+      </c>
+      <c r="N60">
+        <v>29.649999999999991</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.81143331527710005</v>
       </c>
@@ -41182,8 +43522,14 @@
         <f t="shared" si="1"/>
         <v>-8.776247405573784</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M61">
+        <v>30.672822109290671</v>
+      </c>
+      <c r="N61">
+        <v>29.719998999999952</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.38255244493484503</v>
       </c>
@@ -41202,8 +43548,14 @@
         <f t="shared" si="1"/>
         <v>3.7483989815150665E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M62">
+        <v>35.455121855917604</v>
+      </c>
+      <c r="N62">
+        <v>30.450000999999972</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.57878082990646396</v>
       </c>
@@ -41222,8 +43574,14 @@
         <f t="shared" si="1"/>
         <v>9.988737059030278</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M63">
+        <v>29.202149422282844</v>
+      </c>
+      <c r="N63">
+        <v>30.569999999999986</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.36053895950317399</v>
       </c>
@@ -41242,8 +43600,14 @@
         <f t="shared" si="1"/>
         <v>2.0404615582418657</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M64">
+        <v>28.06413578257721</v>
+      </c>
+      <c r="N64">
+        <v>31.030000999999963</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.57524836063384999</v>
       </c>
@@ -41262,8 +43626,14 @@
         <f t="shared" si="1"/>
         <v>2.2751847575824584</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M65">
+        <v>33.747079913142016</v>
+      </c>
+      <c r="N65">
+        <v>31.71999899999993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.44998121261596702</v>
       </c>
@@ -41282,8 +43652,14 @@
         <f t="shared" ref="F66:F129" si="5">B66-D66</f>
         <v>-1.8400099632786961</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M66">
+        <v>27.068945591368411</v>
+      </c>
+      <c r="N66">
+        <v>31.870000999999959</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.54949700832366899</v>
       </c>
@@ -41302,8 +43678,14 @@
         <f t="shared" si="5"/>
         <v>-1.3818762408530461</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M67">
+        <v>27.239717490509122</v>
+      </c>
+      <c r="N67">
+        <v>31.879998999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.40449348092079201</v>
       </c>
@@ -41322,8 +43704,14 @@
         <f t="shared" si="5"/>
         <v>7.5686909045250772</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M68">
+        <v>35.145004814129194</v>
+      </c>
+      <c r="N68">
+        <v>32.110000999999947</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.45769211649894698</v>
       </c>
@@ -41342,8 +43730,14 @@
         <f t="shared" si="5"/>
         <v>-0.31105572401371973</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M69">
+        <v>32.182392494446916</v>
+      </c>
+      <c r="N69">
+        <v>32.330001999999936</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.64438343048095703</v>
       </c>
@@ -41362,8 +43756,14 @@
         <f t="shared" si="5"/>
         <v>3.0346566759396225</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M70">
+        <v>29.976565273594538</v>
+      </c>
+      <c r="N70">
+        <v>32.630000999999957</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.54996359348297097</v>
       </c>
@@ -41382,8 +43782,14 @@
         <f t="shared" si="5"/>
         <v>3.0955755489508974</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M71">
+        <v>33.037483989815122</v>
+      </c>
+      <c r="N71">
+        <v>32.999999999999972</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.480112314224243</v>
       </c>
@@ -41402,8 +43808,14 @@
         <f t="shared" si="5"/>
         <v>0.30861350255539577</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M72">
+        <v>32.697619538649313</v>
+      </c>
+      <c r="N72">
+        <v>33.400001999999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.59716284275054898</v>
       </c>
@@ -41422,8 +43834,14 @@
         <f t="shared" si="5"/>
         <v>14.304261193260935</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M73">
+        <v>38.313822778645594</v>
+      </c>
+      <c r="N73">
+        <v>33.54000099999994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.77198553085327104</v>
       </c>
@@ -41442,8 +43860,14 @@
         <f t="shared" si="5"/>
         <v>-7.8027209823789434</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M74">
+        <v>32.550121668124028</v>
+      </c>
+      <c r="N74">
+        <v>33.799998999999978</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.50168222188949596</v>
       </c>
@@ -41462,8 +43886,14 @@
         <f t="shared" si="5"/>
         <v>-1.2899680522945474</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M75">
+        <v>35.056520923654638</v>
+      </c>
+      <c r="N75">
+        <v>34.200000999999929</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.40445566177368197</v>
       </c>
@@ -41482,8 +43912,14 @@
         <f t="shared" si="5"/>
         <v>-3.2043448383378603</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M76">
+        <v>34.444413253399496</v>
+      </c>
+      <c r="N76">
+        <v>34.490001999999983</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.31032413244247398</v>
       </c>
@@ -41502,8 +43938,14 @@
         <f t="shared" si="5"/>
         <v>-4.640281509490876</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M77">
+        <v>29.217215701676423</v>
+      </c>
+      <c r="N77">
+        <v>34.569999999999936</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.408807843923569</v>
       </c>
@@ -41522,8 +43964,14 @@
         <f t="shared" si="5"/>
         <v>3.0350038141292472</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M78">
+        <v>35.708715231540381</v>
+      </c>
+      <c r="N78">
+        <v>34.669997999999985</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.37375617027282698</v>
       </c>
@@ -41542,8 +43990,14 @@
         <f t="shared" si="5"/>
         <v>9.0814070402874805</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M79">
+        <v>41.783959154335996</v>
+      </c>
+      <c r="N79">
+        <v>34.740001999999976</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.21748018264770499</v>
       </c>
@@ -41562,8 +44016,14 @@
         <f t="shared" si="5"/>
         <v>-3.6128661738290617</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M80">
+        <v>36.413569750332854</v>
+      </c>
+      <c r="N80">
+        <v>35.080001999999986</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.30693721771240201</v>
       </c>
@@ -41582,8 +44042,14 @@
         <f t="shared" si="5"/>
         <v>1.7878498519000843</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M81">
+        <v>50.264260193260881</v>
+      </c>
+      <c r="N81">
+        <v>35.959998999999947</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.45890274643897999</v>
       </c>
@@ -41602,8 +44068,14 @@
         <f t="shared" si="5"/>
         <v>1.8961225388515004</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M82">
+        <v>35.310614275840329</v>
+      </c>
+      <c r="N82">
+        <v>36.349997999999978</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.382408887147903</v>
       </c>
@@ -41622,8 +44094,14 @@
         <f t="shared" si="5"/>
         <v>-6.2740383934555908</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M83">
+        <v>34.88876802175028</v>
+      </c>
+      <c r="N83">
+        <v>36.450000999999979</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.37648090720176702</v>
       </c>
@@ -41642,8 +44120,14 @@
         <f t="shared" si="5"/>
         <v>-1.2498773318759504</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M84">
+        <v>37.029423656461326</v>
+      </c>
+      <c r="N84">
+        <v>36.939999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.37831842899322499</v>
       </c>
@@ -41662,8 +44146,14 @@
         <f t="shared" si="5"/>
         <v>-0.70238246135068039</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M85">
+        <v>41.290915280793548</v>
+      </c>
+      <c r="N85">
+        <v>36.970000999999989</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.46412292122840898</v>
       </c>
@@ -41682,8 +44172,14 @@
         <f t="shared" si="5"/>
         <v>-0.19485304124142999</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M86">
+        <v>39.889466621542368</v>
+      </c>
+      <c r="N86">
+        <v>37.16999799999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.25314152240753202</v>
       </c>
@@ -41702,8 +44198,14 @@
         <f t="shared" si="5"/>
         <v>-1.4203305026304278</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M87">
+        <v>39.166122538851432</v>
+      </c>
+      <c r="N87">
+        <v>37.269999999999932</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.28333747386932401</v>
       </c>
@@ -41722,8 +44224,14 @@
         <f t="shared" si="5"/>
         <v>-1.866502539184232</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M88">
+        <v>38.905835697089678</v>
+      </c>
+      <c r="N88">
+        <v>37.360000999999968</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.67767530679702803</v>
       </c>
@@ -41742,8 +44250,14 @@
         <f t="shared" si="5"/>
         <v>-1.8830054787531338</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M89">
+        <v>36.704115939196711</v>
+      </c>
+      <c r="N89">
+        <v>37.429999999999929</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.43393737077713002</v>
       </c>
@@ -41762,8 +44276,14 @@
         <f t="shared" si="5"/>
         <v>-5.2578461155944893</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M90">
+        <v>38.951924445707654</v>
+      </c>
+      <c r="N90">
+        <v>37.909999999999982</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.48734095692634599</v>
       </c>
@@ -41782,8 +44302,14 @@
         <f t="shared" si="5"/>
         <v>-1.251143362204111</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M91">
+        <v>34.795655161662125</v>
+      </c>
+      <c r="N91">
+        <v>37.999999999999986</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.27368634939193698</v>
       </c>
@@ -41802,8 +44328,14 @@
         <f t="shared" si="5"/>
         <v>-3.3811972816818781</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M92">
+        <v>40.867284421364097</v>
+      </c>
+      <c r="N92">
+        <v>38.459998999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.509047031402588</v>
       </c>
@@ -41822,8 +44354,14 @@
         <f t="shared" si="5"/>
         <v>-3.6087948074083087</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M93">
+        <v>34.731045750124949</v>
+      </c>
+      <c r="N93">
+        <v>38.560000999999978</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.56095951795578003</v>
       </c>
@@ -41842,8 +44380,14 @@
         <f t="shared" si="5"/>
         <v>-1.8417816156085678</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M94">
+        <v>48.788736059030199</v>
+      </c>
+      <c r="N94">
+        <v>38.799998999999922</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.35283756256103499</v>
       </c>
@@ -41862,8 +44406,14 @@
         <f t="shared" si="5"/>
         <v>6.3122704410991588</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M95">
+        <v>44.327366244451873</v>
+      </c>
+      <c r="N95">
+        <v>39.060000999999971</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.202195033431053</v>
       </c>
@@ -41882,8 +44432,14 @@
         <f t="shared" si="5"/>
         <v>-1.1298060708793685</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M96">
+        <v>39.99295937783392</v>
+      </c>
+      <c r="N96">
+        <v>39.299998999999993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.912700295448303</v>
       </c>
@@ -41902,8 +44458,14 @@
         <f t="shared" si="5"/>
         <v>-3.7075521097652597</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M97">
+        <v>33.025960606544402</v>
+      </c>
+      <c r="N97">
+        <v>39.299998999999993</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.57315170764923096</v>
       </c>
@@ -41922,8 +44484,14 @@
         <f t="shared" si="5"/>
         <v>2.1368854267004025</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M98">
+        <v>39.068945275986238</v>
+      </c>
+      <c r="N98">
+        <v>39.380000999999957</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.41583052277565002</v>
       </c>
@@ -41942,8 +44510,14 @@
         <f t="shared" si="5"/>
         <v>1.0387172315403959</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M99">
+        <v>39.585145958758545</v>
+      </c>
+      <c r="N99">
+        <v>39.779998999999975</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.161550357937813</v>
       </c>
@@ -41962,8 +44536,14 @@
         <f t="shared" si="5"/>
         <v>-2.9923540914324231</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M100">
+        <v>43.625777122828751</v>
+      </c>
+      <c r="N100">
+        <v>40.150001999999994</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.32059469819068898</v>
       </c>
@@ -41982,8 +44562,14 @@
         <f t="shared" si="5"/>
         <v>-2.9658652174227527</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M101">
+        <v>38.449991036721244</v>
+      </c>
+      <c r="N101">
+        <v>40.29000099999994</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.40770551562309298</v>
       </c>
@@ -42002,8 +44588,14 @@
         <f t="shared" si="5"/>
         <v>0.85651992365470875</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M102">
+        <v>40.868614502555353</v>
+      </c>
+      <c r="N102">
+        <v>40.560000999999957</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.40561565756797802</v>
       </c>
@@ -42022,8 +44614,14 @@
         <f t="shared" si="5"/>
         <v>-1.5612329782496985</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M103">
+        <v>38.315423182093369</v>
+      </c>
+      <c r="N103">
+        <v>40.679999999999971</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.28389766812324502</v>
       </c>
@@ -42042,8 +44640,14 @@
         <f t="shared" si="5"/>
         <v>-0.85153374754246158</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M104">
+        <v>41.664644173225632</v>
+      </c>
+      <c r="N104">
+        <v>41.540000999999926</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.55041015148162797</v>
       </c>
@@ -42062,8 +44666,14 @@
         <f t="shared" si="5"/>
         <v>-1.6385802413900095</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M105">
+        <v>37.162151884405482</v>
+      </c>
+      <c r="N105">
+        <v>42.419997999999971</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.34296187758445701</v>
       </c>
@@ -42082,8 +44692,14 @@
         <f t="shared" si="5"/>
         <v>-13.200451772219317</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M106">
+        <v>36.497094543128298</v>
+      </c>
+      <c r="N106">
+        <v>42.63999899999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.40791156888008101</v>
       </c>
@@ -42102,8 +44718,14 @@
         <f t="shared" si="5"/>
         <v>5.4230608181809714</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M107">
+        <v>41.448857637795875</v>
+      </c>
+      <c r="N107">
+        <v>42.700000999999986</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.48009574413299599</v>
       </c>
@@ -42122,8 +44744,14 @@
         <f t="shared" si="5"/>
         <v>2.4072854213641008</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M108">
+        <v>29.859549227780612</v>
+      </c>
+      <c r="N108">
+        <v>43.060000999999929</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.26210102438926702</v>
       </c>
@@ -42142,8 +44770,14 @@
         <f t="shared" si="5"/>
         <v>1.4188477035244205</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M109">
+        <v>37.166118205655813</v>
+      </c>
+      <c r="N109">
+        <v>43.249999999999929</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.52320128679275502</v>
       </c>
@@ -42162,8 +44796,14 @@
         <f t="shared" si="5"/>
         <v>5.2673652444519021</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M110">
+        <v>46.47557654895089</v>
+      </c>
+      <c r="N110">
+        <v>43.380000999999993</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.15587505698203999</v>
       </c>
@@ -42182,8 +44822,14 @@
         <f t="shared" si="5"/>
         <v>2.6620905121982545</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M111">
+        <v>37.921109130216777</v>
+      </c>
+      <c r="N111">
+        <v>43.389998999999953</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.68930852413177501</v>
       </c>
@@ -42202,8 +44848,14 @@
         <f t="shared" si="5"/>
         <v>-12.179202146559398</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M112">
+        <v>40.923812871994386</v>
+      </c>
+      <c r="N112">
+        <v>43.580001999999965</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.65105795860290505</v>
       </c>
@@ -42222,8 +44874,14 @@
         <f t="shared" si="5"/>
         <v>-6.3595799650606679</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M113">
+        <v>44.441413529908885</v>
+      </c>
+      <c r="N113">
+        <v>43.700000999999979</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.30819666385650601</v>
       </c>
@@ -42242,8 +44900,14 @@
         <f t="shared" si="5"/>
         <v>-4.801055408631548</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M114">
+        <v>46.46909359925953</v>
+      </c>
+      <c r="N114">
+        <v>43.79999899999995</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.33091652393341098</v>
       </c>
@@ -42262,8 +44926,14 @@
         <f t="shared" si="5"/>
         <v>3.7126687143018557</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M115">
+        <v>42.600030947705399</v>
+      </c>
+      <c r="N115">
+        <v>43.889998999999946</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.68447285890579201</v>
       </c>
@@ -42282,8 +44952,14 @@
         <f t="shared" si="5"/>
         <v>2.9526350154222527</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M116">
+        <v>56.861716478745578</v>
+      </c>
+      <c r="N116">
+        <v>44.029998999999926</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.400079905986786</v>
       </c>
@@ -42302,8 +44978,14 @@
         <f t="shared" si="5"/>
         <v>-4.5588746600486729E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M117">
+        <v>46.43603773253033</v>
+      </c>
+      <c r="N117">
+        <v>45.299998999999929</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.63606584072113004</v>
       </c>
@@ -42322,8 +45004,14 @@
         <f t="shared" si="5"/>
         <v>0.94700476255344057</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M118">
+        <v>48.336886426700353</v>
+      </c>
+      <c r="N118">
+        <v>46.200000999999951</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.75005573034286499</v>
       </c>
@@ -42342,8 +45030,14 @@
         <f t="shared" si="5"/>
         <v>2.2469709745103543</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M119">
+        <v>48.505184757582413</v>
+      </c>
+      <c r="N119">
+        <v>46.229999999999954</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.46920344233512901</v>
       </c>
@@ -42362,8 +45056,14 @@
         <f t="shared" si="5"/>
         <v>0.69296037783392705</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M120">
+        <v>43.191204192591677</v>
+      </c>
+      <c r="N120">
+        <v>46.799998999999985</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.42565211653709401</v>
       </c>
@@ -42382,8 +45082,14 @@
         <f t="shared" si="5"/>
         <v>-6.142904456871662</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M121">
+        <v>48.967115257070816</v>
+      </c>
+      <c r="N121">
+        <v>47.029998999999968</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.54988282918930098</v>
       </c>
@@ -42402,8 +45108,14 @@
         <f t="shared" si="5"/>
         <v>2.66909459925958</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M122">
+        <v>46.43812375914689</v>
+      </c>
+      <c r="N122">
+        <v>47.819999999999936</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.412671267986298</v>
       </c>
@@ -42422,8 +45134,14 @@
         <f t="shared" si="5"/>
         <v>5.0051208559176317</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M123">
+        <v>60.542711391207362</v>
+      </c>
+      <c r="N123">
+        <v>47.970000999999947</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.202195033431053</v>
       </c>
@@ -42442,8 +45160,14 @@
         <f t="shared" si="5"/>
         <v>-1.1298060708793685</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M124">
+        <v>46.51142175860997</v>
+      </c>
+      <c r="N124">
+        <v>48.150001999999979</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.15927067399024999</v>
       </c>
@@ -42462,8 +45186,14 @@
         <f t="shared" si="5"/>
         <v>1.594656682656046</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M125">
+        <v>47.358219384391425</v>
+      </c>
+      <c r="N125">
+        <v>49.200000999999993</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.216640114784241</v>
       </c>
@@ -42482,8 +45212,14 @@
         <f t="shared" si="5"/>
         <v>-6.5402984195491811</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M126">
+        <v>56.687289248561171</v>
+      </c>
+      <c r="N126">
+        <v>49.970001000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.44828483462333701</v>
       </c>
@@ -42502,8 +45238,14 @@
         <f t="shared" si="5"/>
         <v>4.7738217786456545</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M127">
+        <v>72.288251712088609</v>
+      </c>
+      <c r="N127">
+        <v>50.509997999999968</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.35309359431266801</v>
       </c>
@@ -42522,8 +45264,14 @@
         <f t="shared" si="5"/>
         <v>0.95282310929071912</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M128">
+        <v>54.123739561987051</v>
+      </c>
+      <c r="N128">
+        <v>50.529998999999926</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.505534708499908</v>
       </c>
@@ -42542,8 +45290,14 @@
         <f t="shared" si="5"/>
         <v>-13.920731959781776</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M129">
+        <v>54.054656675939562</v>
+      </c>
+      <c r="N129">
+        <v>51.019999999999939</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.12628296017646801</v>
       </c>
@@ -42562,8 +45316,14 @@
         <f t="shared" ref="F130:F138" si="9">B130-D130</f>
         <v>2.7267329607991719</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M130">
+        <v>50.169900980113972</v>
+      </c>
+      <c r="N130">
+        <v>51.040000999999982</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.48537331819534302</v>
       </c>
@@ -42582,8 +45342,14 @@
         <f t="shared" si="9"/>
         <v>4.3209142807935592</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M131">
+        <v>48.236604046233907</v>
+      </c>
+      <c r="N131">
+        <v>51.040000999999982</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.87153673171997104</v>
       </c>
@@ -42602,8 +45368,14 @@
         <f t="shared" si="9"/>
         <v>21.778253712088642</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M132">
+        <v>50.474714442763648</v>
+      </c>
+      <c r="N132">
+        <v>51.330001999999951</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.44830477237701399</v>
       </c>
@@ -42622,8 +45394,14 @@
         <f t="shared" si="9"/>
         <v>-2.3645768179066025</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M133">
+        <v>53.387003762553427</v>
+      </c>
+      <c r="N133">
+        <v>52.439998999999986</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.725211322307587</v>
       </c>
@@ -42642,8 +45420,14 @@
         <f t="shared" si="9"/>
         <v>12.572710391207416</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M134">
+        <v>56.445003955296762</v>
+      </c>
+      <c r="N134">
+        <v>52.909999999999968</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>6.4207591116428403E-2</v>
       </c>
@@ -42662,8 +45446,14 @@
         <f t="shared" si="9"/>
         <v>-0.19605678949946892</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M135">
+        <v>50.221783715504131</v>
+      </c>
+      <c r="N135">
+        <v>52.959998999999989</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.12414150685071899</v>
       </c>
@@ -42682,8 +45472,14 @@
         <f t="shared" si="9"/>
         <v>2.2648385066242032</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M136">
+        <v>52.225919433982838</v>
+      </c>
+      <c r="N136">
+        <v>53.099997999999943</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.57083088159561202</v>
       </c>
@@ -42702,8 +45498,14 @@
         <f t="shared" si="9"/>
         <v>-8.5894082759819526</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M137">
+        <v>57.272635015422203</v>
+      </c>
+      <c r="N137">
+        <v>54.319999999999951</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.17572262883186299</v>
       </c>
@@ -42722,8 +45524,14 @@
         <f t="shared" si="9"/>
         <v>7.4252550648883862</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M138">
+        <v>48.150593724018009</v>
+      </c>
+      <c r="N138">
+        <v>56.740001999999961</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.42461156845092801</v>
       </c>
@@ -42742,8 +45550,14 @@
         <f>B139-D139</f>
         <v>1.3335677503328682</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M139">
+        <v>55.894867064287396</v>
+      </c>
+      <c r="N139">
+        <v>56.810000999999929</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.176542818546295</v>
       </c>
@@ -42762,8 +45576,14 @@
         <f t="shared" ref="F140:F154" si="11">B140-D140</f>
         <v>-2.4089083083744995</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M140">
+        <v>42.909270040218196</v>
+      </c>
+      <c r="N140">
+        <v>56.830001999999972</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.33665537834167503</v>
       </c>
@@ -42782,8 +45602,14 @@
         <f t="shared" si="11"/>
         <v>0.36332654617557125</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M141">
+        <v>56.726995521246828</v>
+      </c>
+      <c r="N141">
+        <v>58.610000999999961</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.297293961048126</v>
       </c>
@@ -42802,8 +45628,14 @@
         <f t="shared" si="11"/>
         <v>1.0137856587451566</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M142">
+        <v>62.536971974510308</v>
+      </c>
+      <c r="N142">
+        <v>60.290000999999954</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.46791413426399198</v>
       </c>
@@ -42822,8 +45654,14 @@
         <f t="shared" si="11"/>
         <v>2.7194686215424184</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M143">
+        <v>54.590421034939268</v>
+      </c>
+      <c r="N143">
+        <v>60.950000999999936</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.43664446473121599</v>
       </c>
@@ -42842,8 +45680,14 @@
         <f t="shared" si="11"/>
         <v>12.279450310685782</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M144">
+        <v>67.131445597513093</v>
+      </c>
+      <c r="N144">
+        <v>61.860000999999997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.213673755526543</v>
       </c>
@@ -42862,8 +45706,14 @@
         <f t="shared" si="11"/>
         <v>1.4615919287680974</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M145">
+        <v>65.26400682046129</v>
+      </c>
+      <c r="N145">
+        <v>65.199996999999968</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.80729347467422496</v>
       </c>
@@ -42882,8 +45732,14 @@
         <f t="shared" si="11"/>
         <v>5.2714445975130957</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M146">
+        <v>63.085262062138895</v>
+      </c>
+      <c r="N146">
+        <v>66.599997999999943</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.291935235261917</v>
       </c>
@@ -42902,8 +45758,14 @@
         <f t="shared" si="11"/>
         <v>-2.866358249396356</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M147">
+        <v>71.626397569939385</v>
+      </c>
+      <c r="N147">
+        <v>68.499999999999943</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.45623427629470797</v>
       </c>
@@ -42922,8 +45784,14 @@
         <f t="shared" si="11"/>
         <v>1.0419244457076715</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M148">
+        <v>57.660793853440531</v>
+      </c>
+      <c r="N148">
+        <v>69.839995999999928</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.13866372406482699</v>
       </c>
@@ -42942,8 +45810,14 @@
         <f t="shared" si="11"/>
         <v>1.0005368533562873</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M149">
+        <v>64.297277017621013</v>
+      </c>
+      <c r="N149">
+        <v>72.099997999999957</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.28917965292930597</v>
       </c>
@@ -42962,8 +45836,14 @@
         <f t="shared" si="11"/>
         <v>1.3024501622761022</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M150">
+        <v>67.463750594426187</v>
+      </c>
+      <c r="N150">
+        <v>76.239997999999972</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.263882786035538</v>
       </c>
@@ -42982,8 +45862,14 @@
         <f t="shared" si="11"/>
         <v>2.591870707307109</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M151">
+        <v>72.781903212650064</v>
+      </c>
+      <c r="N151">
+        <v>77.300002999999961</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.86329138278961204</v>
       </c>
@@ -43002,8 +45888,14 @@
         <f t="shared" si="11"/>
         <v>3.1263975699394422</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M152">
+        <v>62.792404976816805</v>
+      </c>
+      <c r="N152">
+        <v>78.800002999999947</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.67416226863861095</v>
       </c>
@@ -43022,8 +45914,14 @@
         <f t="shared" si="11"/>
         <v>3.5350039552967942</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M153">
+        <v>75.592450890234687</v>
+      </c>
+      <c r="N153">
+        <v>79.300002999999947</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.66730868816375699</v>
       </c>
@@ -43042,9 +45940,18 @@
         <f t="shared" si="11"/>
         <v>-0.91513393571253232</v>
       </c>
+      <c r="M154">
+        <v>75.592450890234687</v>
+      </c>
+      <c r="N154">
+        <v>79.300002999999947</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>